--- a/output/Белсоюзпечать-Торговый-реестр.xlsx
+++ b/output/Белсоюзпечать-Торговый-реестр.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>(55.31232602118992, 30.702838176856282)</t>
+          <t>(55.197046130585456, 30.18978749907921)</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>(52.24453791970532, 26.806014126329128)</t>
+          <t>(52.243626849315916, 26.805722999996444)</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>(52.254714178226585, 26.797521303881112)</t>
+          <t>(52.254155899673655, 26.796546000842053)</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>(55.38604261590397, 29.023899476018894)</t>
+          <t>(53.63258535834539, 31.554075281037235)</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>(53.64893847916096, 23.85787869116998)</t>
+          <t>(53.648434496747676, 23.85788538209925)</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>(52.14582066945848, 26.089477297583258)</t>
+          <t>(52.146482349225714, 26.089317400004603)</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1637,12 +1637,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>(55.467532994989504, 28.716577426528676)</t>
+          <t>(55.46979279960651, 28.777122550002627)</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>(55.19403195005057, 30.24208163212495)</t>
+          <t>(55.193485830924644, 30.239661544172186)</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>(52.43639627707159, 30.99111826490105)</t>
+          <t>(52.43502158956006, 30.991138230966246)</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1967,16 +1967,6 @@
           <t xml:space="preserve">7 </t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>(52.0488136895111, 27.18412777001669)</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>(False)</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2021,7 +2011,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>(52.12776876145494, 26.098090843139172)</t>
+          <t>(52.127416993671446, 26.098290350704257)</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2078,7 +2068,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>(52.826894599097706, 30.04474309999907)</t>
+          <t>(52.65168429910503, 28.883420700000134)</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2135,7 +2125,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>(52.187842462656526, 25.149567854992515)</t>
+          <t>(52.18583160394927, 25.164866531941154)</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2353,7 +2343,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>(52.22127336989555, 27.879233336981496)</t>
+          <t>(52.244873899111425, 27.872885649997816)</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2633,7 +2623,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>(52.187842462656526, 25.149567854992515)</t>
+          <t>(52.18583160394927, 25.164866531941154)</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2861,7 +2851,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>(52.22127336989555, 27.879233336981496)</t>
+          <t>(52.244873899111425, 27.872885649997816)</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3198,7 +3188,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>(52.15388744753205, 25.322972237611356)</t>
+          <t>(52.20202469913042, 25.172640399999995)</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3250,7 +3240,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>(53.704304550694864, 23.850120530670107)</t>
+          <t>(53.70430659766849, 23.851141994922333)</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3364,7 +3354,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>(52.74205039928121, 25.349904550070175)</t>
+          <t>(52.73207569817745, 25.322782983260108)</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3753,7 +3743,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>(54.30800680173313, 26.86346001716225)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3867,7 +3857,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>(52.711463499306085, 25.323401150194098)</t>
+          <t>(52.7109548509282, 25.324524769149555)</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3981,7 +3971,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>(54.45594894930338, 30.14626630001125)</t>
+          <t>(54.50960233970547, 30.425482157511297)</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4038,7 +4028,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>(53.09465771477689, 30.056926362812032)</t>
+          <t>(53.069917879159256, 30.050605497878795)</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4095,7 +4085,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>(53.916263942441695, 30.375283190700166)</t>
+          <t>(51.67173669882058, 30.379609702148887)</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4318,7 +4308,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>(54.30800680173313, 26.86346001716225)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4432,7 +4422,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>(52.32056224702353, 28.829640632015963)</t>
+          <t>(52.129823331294915, 28.49898705318485)</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4484,12 +4474,12 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>(52.18381489912343, 31.13885060000387)</t>
+          <t>(52.43116345784312, 30.9945523836257)</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -4769,7 +4759,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>(53.03938604998333, 26.26240709819529)</t>
+          <t>(53.039280397896434, 26.262755349224875)</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -4982,7 +4972,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>(52.39989033201489, 30.905249483009115)</t>
+          <t>(52.42206379180423, 30.99744657277362)</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -5091,7 +5081,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>(52.121868362677404, 26.08905705965136)</t>
+          <t>(52.12197584912125, 26.091720600009054)</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -5262,7 +5252,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>(55.36691064597082, 27.93816972862627)</t>
+          <t>(54.84921609942106, 27.490131699997416)</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -5319,7 +5309,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>(52.13415102222807, 25.54154325358217)</t>
+          <t>(52.133774287157756, 25.54071874247046)</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -5371,7 +5361,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>(52.26640860719842, 30.73154249394971)</t>
+          <t>(52.433754249124235, 30.997204950025704)</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -5854,7 +5844,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>(52.785341612633346, 27.54440713802967)</t>
+          <t>(52.78408152649971, 27.531437624029746)</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -5958,7 +5948,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>(52.14047475700762, 26.09475856814911)</t>
+          <t>(52.138461899847364, 26.087683499839848)</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -6295,7 +6285,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>(52.071691197410594, 27.345225151355407)</t>
+          <t>(51.88847869915599, 26.84835110000137)</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -6513,7 +6503,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>(54.42380799931447, 25.931859450001934)</t>
+          <t>(54.42237444749655, 25.92651986764786)</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -6788,12 +6778,12 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>(52.12307737500799, 26.122622624035195)</t>
+          <t>(52.13464749046202, 26.13228828166535)</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6887,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>(54.42380799931447, 25.931859450001934)</t>
+          <t>(54.42237444749655, 25.92651986764786)</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -7276,7 +7266,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>(52.15547014917288, 31.256288149986872)</t>
+          <t>(52.471888707010145, 30.980996437142338)</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -7380,7 +7370,7 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>(52.112170335531644, 26.075343687634184)</t>
+          <t>(52.11235220132252, 26.075894639952484)</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -7437,7 +7427,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>(52.19588345416751, 24.34937216805853)</t>
+          <t>(52.19579616462283, 24.348896757890095)</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -7608,7 +7598,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>(55.52609096046675, 28.769087670486893)</t>
+          <t>(55.51380784957849, 28.7718139166949)</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
@@ -7660,12 +7650,12 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>(54.477698816491475, 30.302235898086668)</t>
+          <t>(55.19311979952329, 30.11916235000168)</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -7717,7 +7707,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>(52.72950147781623, 29.483855786269356)</t>
+          <t>(52.64398298672205, 29.731670359538604)</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -7769,12 +7759,12 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>(54.85848459940275, 29.17150745000769)</t>
+          <t>(55.19570575799722, 30.29531987386336)</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -7878,12 +7868,12 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>(52.12808885935538, 26.131746254975102)</t>
+          <t>(52.13464749046202, 26.13228828166535)</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -8044,7 +8034,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>(52.18959812689981, 24.337385173885828)</t>
+          <t>(52.20376705732446, 24.341958402019976)</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
@@ -8101,12 +8091,12 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>(55.48784443001424, 28.726691139699174)</t>
+          <t>(55.4862134937168, 28.784540767548865)</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -8158,7 +8148,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>(55.47592494959221, 28.77966604999283)</t>
+          <t>(55.47446579743195, 28.78036008194419)</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
@@ -8215,12 +8205,12 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>(55.62474285342622, 28.65596497474962)</t>
+          <t>(55.49652932431449, 28.76025905181011)</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -8272,7 +8262,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>(54.495692237381164, 30.39997515472293)</t>
+          <t>(54.49536092248656, 30.400540272203514)</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
@@ -8386,7 +8376,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>(52.22688864926392, 27.482647500020878)</t>
+          <t>(52.226732055517644, 27.481465709767978)</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -8604,7 +8594,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>(52.2123256446124, 24.32199923897197)</t>
+          <t>(52.21165442347178, 24.32406025611209)</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -8775,7 +8765,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>(55.4127056681578, 28.481702879168026)</t>
+          <t>(55.49027257687372, 28.783108136826602)</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -8936,7 +8926,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>(53.69220262234386, 23.832503248864743)</t>
+          <t>(53.69169325833384, 23.834418574689842)</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -8988,12 +8978,12 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>(55.31232602118992, 30.702838176856282)</t>
+          <t>(55.197046130585456, 30.18978749907921)</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -9040,12 +9030,12 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>(54.520115177034484, 30.390739011206293)</t>
+          <t>(55.188860384428274, 30.234931007777305)</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -9092,12 +9082,12 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>(55.08837342194211, 30.281927495225204)</t>
+          <t>(55.20530521749951, 30.207670435437166)</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -9201,12 +9191,12 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>(54.73357583488947, 28.068614414271153)</t>
+          <t>(55.194139520098034, 30.197109838604028)</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -9253,7 +9243,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>(55.47257114960503, 28.771329549998256)</t>
+          <t>(55.15506143895887, 30.227221574947578)</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -9310,7 +9300,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>(55.61849238318207, 27.63010825039055)</t>
+          <t>(55.62179904967112, 27.633026549998227)</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -9414,12 +9404,12 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>(54.499740549396876, 30.420094349993384)</t>
+          <t>(55.16843517640719, 30.1985832888551)</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9617,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>(55.62121180921343, 27.619617601957387)</t>
+          <t>(55.621757304267504, 27.6153656086999)</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -9679,12 +9669,12 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>(55.15886350759479, 30.224382855035234)</t>
+          <t>(55.308587290969385, 30.316199634630312)</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -9731,12 +9721,12 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>(54.85848459940275, 29.17150745000769)</t>
+          <t>(55.19570575799722, 30.29531987386336)</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -9892,7 +9882,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>(54.65388194190198, 29.136531459505)</t>
+          <t>(54.65345438653464, 29.135853531302693)</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -10001,12 +9991,12 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>(54.73357583488947, 28.068614414271153)</t>
+          <t>(55.194139520098034, 30.197109838604028)</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -10053,12 +10043,12 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>(54.80965534687262, 29.70544918057767)</t>
+          <t>(55.15000582029757, 30.225265950055388)</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -10313,12 +10303,12 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>(54.52636044932222, 30.410800600009527)</t>
+          <t>(55.168889202124134, 30.24038954322977)</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10407,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>(54.562849602498744, 30.684363581651557)</t>
+          <t>(55.19492968773039, 30.185808404946844)</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -10469,7 +10459,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>(53.67955475497425, 23.909932608477536)</t>
+          <t>(53.67623394019289, 23.91834612320958)</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -10521,7 +10511,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>(54.47843659930382, 30.30253710000821)</t>
+          <t>(55.20683271513604, 30.21918848974544)</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -10573,12 +10563,12 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>(54.85848459940275, 29.17150745000769)</t>
+          <t>(55.19570575799722, 30.29531987386336)</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -10677,12 +10667,12 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>(55.31647814461116, 30.707551272858726)</t>
+          <t>(55.15668028865954, 30.20700135342576)</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -10729,7 +10719,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>(53.67782621980417, 23.843754982171845)</t>
+          <t>(53.67713552906287, 23.84293861012099)</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
@@ -10786,12 +10776,12 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>(54.474294816593876, 30.3182501976723)</t>
+          <t>(54.4992579123979, 30.402075838570358)</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -10838,7 +10828,7 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>(53.676858197224895, 23.83644973649002)</t>
+          <t>(53.67797889349575, 23.83591646106171)</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
@@ -10895,7 +10885,7 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>(54.00652626582507, 25.600367508374905)</t>
+          <t>(53.92971623071943, 25.767644768370776)</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
@@ -10947,12 +10937,12 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>(54.52636044932222, 30.410800600009527)</t>
+          <t>(55.168889202124134, 30.24038954322977)</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -10999,7 +10989,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>(54.517742099316884, 30.38217009999737)</t>
+          <t>(55.19263574932451, 30.220534686772787)</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
@@ -11051,7 +11041,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>(54.5935995493401, 25.912656900001938)</t>
+          <t>(53.93736015270664, 28.646877903692964)</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -11103,7 +11093,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>(53.71130201949389, 23.82156004007931)</t>
+          <t>(53.727416641925856, 23.827808754707664)</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
@@ -11155,12 +11145,12 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>(54.804921281128074, 29.707384603008084)</t>
+          <t>(55.17899598334674, 30.134632646967447)</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -11207,12 +11197,12 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>(54.80965534687262, 29.70544918057767)</t>
+          <t>(55.15000582029757, 30.225265950055388)</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -11259,12 +11249,12 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>(54.80965534687262, 29.70544918057767)</t>
+          <t>(55.15000582029757, 30.225265950055388)</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11301,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>(54.4809393108731, 29.972807596794176)</t>
+          <t>(54.47271624929988, 30.029727299999642)</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -11363,7 +11353,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>(53.67948364915578, 23.829547999990616)</t>
+          <t>(53.68223057166871, 23.83167344287709)</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
@@ -11420,7 +11410,7 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>(54.85464169941704, 29.158642699987503)</t>
+          <t>(54.85438749940609, 29.15735429999177)</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
@@ -11472,7 +11462,7 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>(54.660637050814856, 29.388442233520077)</t>
+          <t>(55.229138449519205, 30.262066499996735)</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
@@ -11524,12 +11514,12 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>(54.85848459940275, 29.17150745000769)</t>
+          <t>(55.19570575799722, 30.29531987386336)</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -11623,7 +11613,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>(54.56320366213502, 30.68465647376836)</t>
+          <t>(55.19637166218267, 30.18796693324615)</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
@@ -11789,7 +11779,7 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>(54.492402504315976, 30.432686231116353)</t>
+          <t>(54.54734282992338, 30.428579208367164)</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
@@ -11841,12 +11831,12 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>(54.85848459940275, 29.17150745000769)</t>
+          <t>(55.19570575799722, 30.29531987386336)</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12002,7 +11992,7 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>(54.40526727821412, 29.712629061642232)</t>
+          <t>(54.40618314932373, 29.704777349998064)</t>
         </is>
       </c>
       <c r="S212" t="inlineStr">
@@ -12054,12 +12044,12 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>(55.08837342194211, 30.281927495225204)</t>
+          <t>(55.20530521749951, 30.207670435437166)</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12106,12 +12096,12 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>(55.272037778971786, 29.99529002214706)</t>
+          <t>(55.20384197304823, 30.213336187755683)</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12158,12 +12148,12 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>(54.499740549396876, 30.420094349993384)</t>
+          <t>(55.16843517640719, 30.1985832888551)</t>
         </is>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12210,12 +12200,12 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>(54.52636044932222, 30.410800600009527)</t>
+          <t>(55.168889202124134, 30.24038954322977)</t>
         </is>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12371,12 +12361,12 @@
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>(54.80965534687262, 29.70544918057767)</t>
+          <t>(55.15000582029757, 30.225265950055388)</t>
         </is>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12423,12 +12413,12 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>(54.520115177034484, 30.390739011206293)</t>
+          <t>(55.188860384428274, 30.234931007777305)</t>
         </is>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12517,12 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>(54.73357583488947, 28.068614414271153)</t>
+          <t>(55.194139520098034, 30.197109838604028)</t>
         </is>
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12626,7 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>(54.60418302816108, 30.048191297405943)</t>
+          <t>(54.54902878586563, 30.45535404122185)</t>
         </is>
       </c>
       <c r="S224" t="inlineStr">
@@ -12688,12 +12678,12 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>(54.89267231581327, 27.99978496786874)</t>
+          <t>(55.15171769380896, 30.227843135228476)</t>
         </is>
       </c>
       <c r="S225" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12740,12 +12730,12 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>(54.73357583488947, 28.068614414271153)</t>
+          <t>(55.194139520098034, 30.197109838604028)</t>
         </is>
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12896,12 +12886,12 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>(55.08837342194211, 30.281927495225204)</t>
+          <t>(55.20530521749951, 30.207670435437166)</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12938,7 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>(53.68495230514122, 23.84074283926823)</t>
+          <t>(53.68634801881392, 23.845119654827343)</t>
         </is>
       </c>
       <c r="S230" t="inlineStr">
@@ -13057,12 +13047,12 @@
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>(55.08837342194211, 30.281927495225204)</t>
+          <t>(55.20530521749951, 30.207670435437166)</t>
         </is>
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -13109,12 +13099,12 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>(55.08837342194211, 30.281927495225204)</t>
+          <t>(55.20530521749951, 30.207670435437166)</t>
         </is>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -13270,7 +13260,7 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>(54.495692237381164, 30.39997515472293)</t>
+          <t>(54.49536092248656, 30.400540272203514)</t>
         </is>
       </c>
       <c r="S236" t="inlineStr">
@@ -13478,7 +13468,7 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>(54.56320366213502, 30.68465647376836)</t>
+          <t>(55.19637166218267, 30.18796693324615)</t>
         </is>
       </c>
       <c r="S240" t="inlineStr">
@@ -13530,12 +13520,12 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>(54.477698816491475, 30.302235898086668)</t>
+          <t>(55.19311979952329, 30.11916235000168)</t>
         </is>
       </c>
       <c r="S241" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -13582,12 +13572,12 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>(54.52636044932222, 30.410800600009527)</t>
+          <t>(55.168889202124134, 30.24038954322977)</t>
         </is>
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -13634,12 +13624,12 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>(54.85848459940275, 29.17150745000769)</t>
+          <t>(55.19570575799722, 30.29531987386336)</t>
         </is>
       </c>
       <c r="S243" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -13842,12 +13832,12 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>(54.85848459940275, 29.17150745000769)</t>
+          <t>(55.19570575799722, 30.29531987386336)</t>
         </is>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -13899,7 +13889,7 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>(53.22166877068182, 26.67179106730618)</t>
+          <t>(53.2221425306518, 26.670429915483144)</t>
         </is>
       </c>
       <c r="S248" t="inlineStr">
@@ -14070,7 +14060,7 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>(53.14968314912507, 26.69467959999609)</t>
+          <t>(53.222506649309665, 26.671816449995834)</t>
         </is>
       </c>
       <c r="S251" t="inlineStr">
@@ -14469,7 +14459,7 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>(54.47945981983853, 26.897910948931603)</t>
+          <t>(54.47904702748773, 26.893869079508335)</t>
         </is>
       </c>
       <c r="S258" t="inlineStr">
@@ -14620,7 +14610,7 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S261" t="inlineStr">
@@ -14734,7 +14724,7 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>(54.83862459939656, 27.507538050009785)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="S263" t="inlineStr">
@@ -14957,7 +14947,7 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>(53.80255769001777, 27.65719044146571)</t>
+          <t>(53.644008212970384, 27.908466234810998)</t>
         </is>
       </c>
       <c r="S267" t="inlineStr">
@@ -15004,7 +14994,7 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S268" t="inlineStr">
@@ -15108,7 +15098,7 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>(55.206267478972705, 30.154341581095174)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="S270" t="inlineStr">
@@ -15165,7 +15155,7 @@
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>(54.30006360030434, 26.84807279269444)</t>
+          <t>(54.30036549320166, 26.84652778407459)</t>
         </is>
       </c>
       <c r="S271" t="inlineStr">
@@ -15336,7 +15326,7 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>(53.50372897443043, 28.158986685527143)</t>
+          <t>(53.50275538778649, 28.16576227467073)</t>
         </is>
       </c>
       <c r="S274" t="inlineStr">
@@ -15487,7 +15477,7 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>(53.939212511577814, 27.684545718646444)</t>
+          <t>(53.93927780479761, 27.685786303863484)</t>
         </is>
       </c>
       <c r="S277" t="inlineStr">
@@ -15658,7 +15648,7 @@
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>(52.80516949886019, 27.455519194714686)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S280" t="inlineStr">
@@ -15715,7 +15705,7 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>(52.80516949886019, 27.455519194714686)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S281" t="inlineStr">
@@ -15767,7 +15757,7 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>(53.6197032788835, 23.91404765970192)</t>
+          <t>(53.61864254122218, 27.897944329073816)</t>
         </is>
       </c>
       <c r="S282" t="inlineStr">
@@ -15824,7 +15814,7 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>(54.48644562826493, 26.896936623570195)</t>
+          <t>(54.486171568854694, 26.912539583760026)</t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
@@ -15918,7 +15908,7 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S285" t="inlineStr">
@@ -15965,7 +15955,7 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>(54.32361265288531, 29.138368523759258)</t>
+          <t>(53.91157079534169, 27.496210251401475)</t>
         </is>
       </c>
       <c r="S286" t="inlineStr">
@@ -16012,7 +16002,7 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>(54.327586299270806, 26.839476700000443)</t>
+          <t>(53.947106775167036, 27.629241160833164)</t>
         </is>
       </c>
       <c r="S287" t="inlineStr">
@@ -16069,7 +16059,7 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>(53.70369003018973, 28.414795789775702)</t>
+          <t>(53.7053905493013, 28.414530699847244)</t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
@@ -16126,7 +16116,7 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>(54.83862459939656, 27.507538050009785)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
@@ -16183,7 +16173,7 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>(52.810909293620554, 27.554806706818052)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
@@ -16240,7 +16230,7 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>(52.80516949886019, 27.455519194714686)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S291" t="inlineStr">
@@ -16292,7 +16282,7 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>(52.79523599974555, 28.02272544992966)</t>
+          <t>(52.599637881265735, 29.133781440824443)</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
@@ -16339,7 +16329,7 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>(53.88700750810612, 27.69088647723631)</t>
+          <t>(53.88734963221688, 27.691631763460823)</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
@@ -16537,7 +16527,7 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>(55.206267478972705, 30.154341581095174)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="S297" t="inlineStr">
@@ -16589,7 +16579,7 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>(54.289272599272344, 26.84159214998833)</t>
+          <t>(54.298795795623846, 26.847750619291435)</t>
         </is>
       </c>
       <c r="S298" t="inlineStr">
@@ -16703,7 +16693,7 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>(52.92953814155527, 27.27123980362524)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S300" t="inlineStr">
@@ -16750,7 +16740,7 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>(54.478595199324474, 26.901249499988054)</t>
+          <t>(53.8739512669331, 27.630912567890125)</t>
         </is>
       </c>
       <c r="S301" t="inlineStr">
@@ -16797,7 +16787,7 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S302" t="inlineStr">
@@ -16844,7 +16834,7 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>(53.92954729990538, 27.7606984332562)</t>
+          <t>(53.9160746132959, 27.600304067002572)</t>
         </is>
       </c>
       <c r="S303" t="inlineStr">
@@ -16948,7 +16938,7 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>(54.28332839930047, 26.837101400004446)</t>
+          <t>(54.305807671729816, 26.844554716799557)</t>
         </is>
       </c>
       <c r="S305" t="inlineStr">
@@ -17062,7 +17052,7 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>(52.80516949886019, 27.455519194714686)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S307" t="inlineStr">
@@ -17119,7 +17109,7 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>(52.92953814155527, 27.27123980362524)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S308" t="inlineStr">
@@ -17223,7 +17213,7 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>(54.47859211619139, 26.899363479077604)</t>
+          <t>(53.87609359939898, 27.619879249645134)</t>
         </is>
       </c>
       <c r="S310" t="inlineStr">
@@ -17317,7 +17307,7 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S312" t="inlineStr">
@@ -17364,7 +17354,7 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>(53.94279229983798, 27.708051116538574)</t>
+          <t>(53.94217460676814, 27.707862824849002)</t>
         </is>
       </c>
       <c r="S313" t="inlineStr">
@@ -17421,7 +17411,7 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>(54.315241260490524, 26.840438231343356)</t>
+          <t>(54.31600845451926, 26.837473199991027)</t>
         </is>
       </c>
       <c r="S314" t="inlineStr">
@@ -17478,7 +17468,7 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>(54.505673819900615, 26.92154222332228)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="S315" t="inlineStr">
@@ -17535,7 +17525,7 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>(55.53496029965784, 28.065663500001037)</t>
+          <t>(53.164763394741726, 27.099176585655815)</t>
         </is>
       </c>
       <c r="S316" t="inlineStr">
@@ -17592,7 +17582,7 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>(53.83985742040728, 27.53777134546554)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S317" t="inlineStr">
@@ -17639,7 +17629,7 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S318" t="inlineStr">
@@ -17894,7 +17884,7 @@
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>(52.815222971614105, 28.020011464853567)</t>
+          <t>(52.599637881265735, 29.133781440824443)</t>
         </is>
       </c>
       <c r="S323" t="inlineStr">
@@ -18008,7 +17998,7 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>(53.51378589913487, 28.13195125000136)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S325" t="inlineStr">
@@ -18055,7 +18045,7 @@
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S326" t="inlineStr">
@@ -18149,7 +18139,7 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>(53.93532578494581, 27.651426344746845)</t>
+          <t>(53.935495645129194, 27.65010641721948)</t>
         </is>
       </c>
       <c r="S328" t="inlineStr">
@@ -18196,7 +18186,7 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>(53.96173302654896, 27.863468027601076)</t>
+          <t>(53.91938140303268, 27.599058273753652)</t>
         </is>
       </c>
       <c r="S329" t="inlineStr">
@@ -18253,7 +18243,7 @@
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>(52.81147499912913, 27.98236680000013)</t>
+          <t>(52.599637881265735, 29.133781440824443)</t>
         </is>
       </c>
       <c r="S330" t="inlineStr">
@@ -18310,7 +18300,7 @@
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>(52.79280685459649, 27.989200151521707)</t>
+          <t>(52.599637881265735, 29.133781440824443)</t>
         </is>
       </c>
       <c r="S331" t="inlineStr">
@@ -18424,7 +18414,7 @@
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>(53.8418946111635, 27.533696842924222)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S333" t="inlineStr">
@@ -18669,7 +18659,7 @@
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>(54.60151159938392, 26.883697350018576)</t>
+          <t>(52.599637881265735, 29.133781440824443)</t>
         </is>
       </c>
       <c r="S338" t="inlineStr">
@@ -18726,7 +18716,7 @@
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>(52.80516949886019, 27.455519194714686)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S339" t="inlineStr">
@@ -18783,7 +18773,7 @@
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>(53.84517065097379, 27.504798882382293)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S340" t="inlineStr">
@@ -18840,7 +18830,7 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>(53.83985742040728, 27.53777134546554)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S341" t="inlineStr">
@@ -19085,7 +19075,7 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>(52.80516949886019, 27.455519194714686)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S346" t="inlineStr">
@@ -19142,7 +19132,7 @@
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>(52.72242856673849, 27.46331164586958)</t>
+          <t>(52.73632749365639, 27.470179960235157)</t>
         </is>
       </c>
       <c r="S347" t="inlineStr">
@@ -19199,7 +19189,7 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>(53.84517065097379, 27.504798882382293)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S348" t="inlineStr">
@@ -19256,7 +19246,7 @@
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>(53.84517065097379, 27.504798882382293)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S349" t="inlineStr">
@@ -19350,7 +19340,7 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>(53.96917028370429, 27.06607049843754)</t>
+          <t>(53.90990814864658, 27.537050839611027)</t>
         </is>
       </c>
       <c r="S351" t="inlineStr">
@@ -19397,7 +19387,7 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>(54.51735149930691, 28.955468350000157)</t>
+          <t>(53.92407684436287, 27.60757872904117)</t>
         </is>
       </c>
       <c r="S352" t="inlineStr">
@@ -19444,7 +19434,7 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>(53.91984997561476, 27.5964961647145)</t>
+          <t>(53.919331513266606, 27.59511936829793)</t>
         </is>
       </c>
       <c r="S353" t="inlineStr">
@@ -19501,7 +19491,7 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>(55.574735249642835, 30.42700009999796)</t>
+          <t>(51.861694849168394, 26.758784650003555)</t>
         </is>
       </c>
       <c r="S354" t="inlineStr">
@@ -19558,7 +19548,7 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>(55.574735249642835, 30.42700009999796)</t>
+          <t>(51.861694849168394, 26.758784650003555)</t>
         </is>
       </c>
       <c r="S355" t="inlineStr">
@@ -19615,7 +19605,7 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>(53.8418946111635, 27.533696842924222)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S356" t="inlineStr">
@@ -19672,7 +19662,7 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>(53.84517065097379, 27.504798882382293)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S357" t="inlineStr">
@@ -19719,7 +19709,7 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S358" t="inlineStr">
@@ -19766,7 +19756,7 @@
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>(53.90509269925353, 27.5517136500073)</t>
+          <t>(53.904888463103745, 27.55241490941676)</t>
         </is>
       </c>
       <c r="S359" t="inlineStr">
@@ -19917,7 +19907,7 @@
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>(53.946162294058645, 27.425707841600712)</t>
+          <t>(53.94701819926706, 27.42416359993129)</t>
         </is>
       </c>
       <c r="S362" t="inlineStr">
@@ -19974,7 +19964,7 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>(54.017461550122675, 27.254556000358278)</t>
+          <t>(54.00763019919655, 27.277015099995445)</t>
         </is>
       </c>
       <c r="S363" t="inlineStr">
@@ -20088,7 +20078,7 @@
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>(53.84517065097379, 27.504798882382293)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S365" t="inlineStr">
@@ -20229,7 +20219,7 @@
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>(53.93446667691334, 27.646378348060967)</t>
+          <t>(53.93432491865017, 27.64770335742511)</t>
         </is>
       </c>
       <c r="S368" t="inlineStr">
@@ -20333,7 +20323,7 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>(55.206267478972705, 30.154341581095174)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="S370" t="inlineStr">
@@ -20390,7 +20380,7 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>(54.505673819900615, 26.92154222332228)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="S371" t="inlineStr">
@@ -20447,7 +20437,7 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>(53.83985742040728, 27.53777134546554)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S372" t="inlineStr">
@@ -20504,7 +20494,7 @@
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>(53.83985742040728, 27.53777134546554)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S373" t="inlineStr">
@@ -20551,7 +20541,7 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>(53.483759999151154, 26.74893433332286)</t>
+          <t>(53.926621133192704, 27.55558011946863)</t>
         </is>
       </c>
       <c r="S374" t="inlineStr">
@@ -20598,7 +20588,7 @@
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>(53.485617804800235, 26.75222412541727)</t>
+          <t>(53.92799804097945, 27.556567574229927)</t>
         </is>
       </c>
       <c r="S375" t="inlineStr">
@@ -20702,7 +20692,7 @@
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>(55.206267478972705, 30.154341581095174)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="S377" t="inlineStr">
@@ -20759,7 +20749,7 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>(54.98481496513267, 28.92462333911962)</t>
+          <t>(55.219768899516644, 28.992144549999455)</t>
         </is>
       </c>
       <c r="S378" t="inlineStr">
@@ -20816,12 +20806,12 @@
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>(54.71324028189588, 27.2904818193078)</t>
+          <t>(54.86646904949152, 26.93070879988906)</t>
         </is>
       </c>
       <c r="S379" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -20873,7 +20863,7 @@
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>(53.83985742040728, 27.53777134546554)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S380" t="inlineStr">
@@ -20920,7 +20910,7 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S381" t="inlineStr">
@@ -21081,7 +21071,7 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>(52.810909293620554, 27.554806706818052)</t>
+          <t>(52.81142799093599, 27.47987671979781)</t>
         </is>
       </c>
       <c r="S384" t="inlineStr">
@@ -21195,7 +21185,7 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>(54.49318854650271, 26.91573705955432)</t>
+          <t>(54.48673114468381, 26.91604118518917)</t>
         </is>
       </c>
       <c r="S386" t="inlineStr">
@@ -21361,7 +21351,7 @@
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>(52.804319668001526, 29.4183018255499)</t>
+          <t>(52.6382349462432, 29.737493720212772)</t>
         </is>
       </c>
       <c r="S389" t="inlineStr">
@@ -21522,7 +21512,7 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>(52.22836244727304, 27.478389672511767)</t>
+          <t>(51.830297547119166, 23.72182492506795)</t>
         </is>
       </c>
       <c r="S392" t="inlineStr">
@@ -21574,7 +21564,7 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>(52.15547014917288, 31.256288149986872)</t>
+          <t>(52.471888707010145, 30.980996437142338)</t>
         </is>
       </c>
       <c r="S393" t="inlineStr">
@@ -21626,7 +21616,7 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>(52.15547014917288, 31.256288149986872)</t>
+          <t>(52.471888707010145, 30.980996437142338)</t>
         </is>
       </c>
       <c r="S394" t="inlineStr">
@@ -21849,7 +21839,7 @@
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>(51.99009043135778, 29.21505323415142)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S398" t="inlineStr">
@@ -21958,7 +21948,7 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>(52.39485140647584, 30.897975969279276)</t>
+          <t>(52.39517788471411, 30.904474162351967)</t>
         </is>
       </c>
       <c r="S400" t="inlineStr">
@@ -22067,7 +22057,7 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>(53.67955475497425, 23.909932608477536)</t>
+          <t>(53.67623394019289, 23.91834612320958)</t>
         </is>
       </c>
       <c r="S402" t="inlineStr">
@@ -22119,7 +22109,7 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>(53.17017055147411, 24.780973950541224)</t>
+          <t>(53.93736015270664, 28.646877903692964)</t>
         </is>
       </c>
       <c r="S403" t="inlineStr">
@@ -22171,7 +22161,7 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>(53.6997776760158, 23.82724460657508)</t>
+          <t>(53.70985373478686, 23.847860845032468)</t>
         </is>
       </c>
       <c r="S404" t="inlineStr">
@@ -22337,7 +22327,7 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>(52.590954299131646, 29.627408949998646)</t>
+          <t>(52.624543784780094, 29.74673198689713)</t>
         </is>
       </c>
       <c r="S407" t="inlineStr">
@@ -22503,7 +22493,7 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>(53.66977494917793, 23.80062969998477)</t>
+          <t>(53.670563627096186, 23.802516436163362)</t>
         </is>
       </c>
       <c r="S410" t="inlineStr">
@@ -22555,7 +22545,7 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>(52.39989033201489, 30.905249483009115)</t>
+          <t>(52.42206379180423, 30.99744657277362)</t>
         </is>
       </c>
       <c r="S411" t="inlineStr">
@@ -22664,7 +22654,7 @@
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>(52.4361568886346, 29.560000015805773)</t>
+          <t>(52.60780784643237, 29.757905473868327)</t>
         </is>
       </c>
       <c r="S413" t="inlineStr">
@@ -22778,7 +22768,7 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>(52.051930699142005, 29.2495876499996)</t>
+          <t>(52.053004749149444, 29.25008114998862)</t>
         </is>
       </c>
       <c r="S415" t="inlineStr">
@@ -22882,7 +22872,7 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>(52.46087955042596, 31.020131596959487)</t>
+          <t>(52.44865544985556, 31.021668617878035)</t>
         </is>
       </c>
       <c r="S417" t="inlineStr">
@@ -22934,7 +22924,7 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>(53.68495230514122, 23.84074283926823)</t>
+          <t>(53.68634801881392, 23.845119654827343)</t>
         </is>
       </c>
       <c r="S418" t="inlineStr">
@@ -23157,7 +23147,7 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>(52.03624040185806, 29.213216069301573)</t>
+          <t>(52.03664184397582, 29.217474196759007)</t>
         </is>
       </c>
       <c r="S422" t="inlineStr">
@@ -23380,7 +23370,7 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>(52.02223952393908, 29.25100616702968)</t>
+          <t>(52.04212889913255, 29.275674400000213)</t>
         </is>
       </c>
       <c r="S426" t="inlineStr">
@@ -23484,7 +23474,7 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>(53.62439603757778, 23.806355365075447)</t>
+          <t>(53.62413703812593, 23.80716116095892)</t>
         </is>
       </c>
       <c r="S428" t="inlineStr">
@@ -23536,7 +23526,7 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>(55.38604261590397, 29.023899476018894)</t>
+          <t>(53.63258535834539, 31.554075281037235)</t>
         </is>
       </c>
       <c r="S429" t="inlineStr">
@@ -23588,7 +23578,7 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>(53.70072147604652, 23.81574194017247)</t>
+          <t>(53.700097799868054, 23.815758642579983)</t>
         </is>
       </c>
       <c r="S430" t="inlineStr">
@@ -23697,7 +23687,7 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>(52.025747085972796, 29.21273216381271)</t>
+          <t>(52.03291789920936, 29.21278985003004)</t>
         </is>
       </c>
       <c r="S432" t="inlineStr">
@@ -23749,7 +23739,7 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>(52.12513909917838, 31.276494699980123)</t>
+          <t>(52.417773799303646, 31.003324400007116)</t>
         </is>
       </c>
       <c r="S433" t="inlineStr">
@@ -23806,7 +23796,7 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>(52.05015654678331, 29.266692727537414)</t>
+          <t>(52.05565922476262, 29.245825288340797)</t>
         </is>
       </c>
       <c r="S434" t="inlineStr">
@@ -23910,7 +23900,7 @@
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>(53.652546232846056, 23.856645041356714)</t>
+          <t>(53.657050263889516, 23.84126959615294)</t>
         </is>
       </c>
       <c r="S436" t="inlineStr">
@@ -23967,7 +23957,7 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>(52.64149004910368, 29.743575349993584)</t>
+          <t>(52.63802237594013, 29.751564564777386)</t>
         </is>
       </c>
       <c r="S437" t="inlineStr">
@@ -24019,12 +24009,12 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>(52.5197625990917, 30.673003450000365)</t>
+          <t>(52.452092029320525, 31.00743132637716)</t>
         </is>
       </c>
       <c r="S438" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -24071,7 +24061,7 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>(52.39989033201489, 30.905249483009115)</t>
+          <t>(52.42206379180423, 30.99744657277362)</t>
         </is>
       </c>
       <c r="S439" t="inlineStr">
@@ -24294,7 +24284,7 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>(52.325587249129036, 31.18532404998803)</t>
+          <t>(52.43186599102472, 30.99125289933871)</t>
         </is>
       </c>
       <c r="S443" t="inlineStr">
@@ -24403,7 +24393,7 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>(52.26640860719842, 30.73154249394971)</t>
+          <t>(52.433754249124235, 30.997204950025704)</t>
         </is>
       </c>
       <c r="S445" t="inlineStr">
@@ -24460,7 +24450,7 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>(51.9362138158848, 30.80024581594924)</t>
+          <t>(51.936466474664584, 30.80094096335396)</t>
         </is>
       </c>
       <c r="S446" t="inlineStr">
@@ -24512,12 +24502,12 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>(52.34859681780166, 30.432058788880436)</t>
+          <t>(52.57050482000051, 30.879922510278075)</t>
         </is>
       </c>
       <c r="S447" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -24564,7 +24554,7 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>(55.18778156102188, 30.205778468300103)</t>
+          <t>(52.1084682270665, 23.849084070113086)</t>
         </is>
       </c>
       <c r="S448" t="inlineStr">
@@ -24725,7 +24715,7 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>(52.72950147781623, 29.483855786269356)</t>
+          <t>(52.64398298672205, 29.731670359538604)</t>
         </is>
       </c>
       <c r="S451" t="inlineStr">
@@ -24829,7 +24819,7 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>(52.25156788263173, 30.78435574859127)</t>
+          <t>(52.39635604912705, 30.911316999991612)</t>
         </is>
       </c>
       <c r="S453" t="inlineStr">
@@ -24881,7 +24871,7 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>(53.71355000126361, 23.847944406739384)</t>
+          <t>(53.7114823865168, 23.84868352871408)</t>
         </is>
       </c>
       <c r="S454" t="inlineStr">
@@ -24933,7 +24923,7 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>(52.15547014917288, 31.256288149986872)</t>
+          <t>(52.471888707010145, 30.980996437142338)</t>
         </is>
       </c>
       <c r="S455" t="inlineStr">
@@ -24985,7 +24975,7 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>(52.325587249129036, 31.18532404998803)</t>
+          <t>(52.43186599102472, 30.99125289933871)</t>
         </is>
       </c>
       <c r="S456" t="inlineStr">
@@ -25146,7 +25136,7 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>(52.15547014917288, 31.256288149986872)</t>
+          <t>(52.471888707010145, 30.980996437142338)</t>
         </is>
       </c>
       <c r="S459" t="inlineStr">
@@ -25198,7 +25188,7 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>(52.15547014917288, 31.256288149986872)</t>
+          <t>(52.471888707010145, 30.980996437142338)</t>
         </is>
       </c>
       <c r="S460" t="inlineStr">
@@ -25411,7 +25401,7 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>(55.18778156102188, 30.205778468300103)</t>
+          <t>(52.1084682270665, 23.849084070113086)</t>
         </is>
       </c>
       <c r="S464" t="inlineStr">
@@ -25572,12 +25562,12 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>(52.90326814910729, 30.93065780000512)</t>
+          <t>(52.404072581354995, 30.943574728244762)</t>
         </is>
       </c>
       <c r="S467" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -25676,7 +25666,7 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>(52.40905309929396, 30.971904600031372)</t>
+          <t>(52.431388725864075, 30.971928037598)</t>
         </is>
       </c>
       <c r="S469" t="inlineStr">
@@ -25837,7 +25827,7 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>(51.892682402800695, 26.852139885471704)</t>
+          <t>(52.0946101491969, 23.685755350007145)</t>
         </is>
       </c>
       <c r="S472" t="inlineStr">
@@ -25998,7 +25988,7 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>(52.025747085972796, 29.21273216381271)</t>
+          <t>(52.03291789920936, 29.21278985003004)</t>
         </is>
       </c>
       <c r="S475" t="inlineStr">
@@ -26050,7 +26040,7 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>(52.32532362501997, 30.892362310798234)</t>
+          <t>(52.42314121315654, 31.004318712298577)</t>
         </is>
       </c>
       <c r="S476" t="inlineStr">
@@ -26102,7 +26092,7 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>(52.521618799106726, 30.66814489999581)</t>
+          <t>(52.35549978066903, 31.03400380151635)</t>
         </is>
       </c>
       <c r="S477" t="inlineStr">
@@ -26154,7 +26144,7 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>(55.29702149315053, 28.778397520774774)</t>
+          <t>(52.57050482000051, 30.879922510278075)</t>
         </is>
       </c>
       <c r="S478" t="inlineStr">
@@ -26424,7 +26414,7 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>(52.43715152146903, 30.99619956737107)</t>
+          <t>(52.437299799126635, 30.994942549995084)</t>
         </is>
       </c>
       <c r="S483" t="inlineStr">
@@ -26533,7 +26523,7 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>(52.37897542097203, 30.372555984305425)</t>
+          <t>(52.38020619915358, 30.37049769999763)</t>
         </is>
       </c>
       <c r="S485" t="inlineStr">
@@ -26922,7 +26912,7 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>(55.437377358786456, 28.935056822035023)</t>
+          <t>(52.57050482000051, 30.879922510278075)</t>
         </is>
       </c>
       <c r="S492" t="inlineStr">
@@ -26974,12 +26964,12 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>(52.4383546491107, 31.31307014999752)</t>
+          <t>(52.462903478635674, 30.956897869940207)</t>
         </is>
       </c>
       <c r="S493" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -27031,7 +27021,7 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>(52.04455881823326, 29.25229227770262)</t>
+          <t>(52.04392354596713, 29.251550076249735)</t>
         </is>
       </c>
       <c r="S494" t="inlineStr">
@@ -27083,12 +27073,12 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>(52.40243811025386, 31.329122320511217)</t>
+          <t>(52.428230549308154, 31.015477800181166)</t>
         </is>
       </c>
       <c r="S495" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -27135,7 +27125,7 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>(52.16000495120411, 31.252719632086826)</t>
+          <t>(52.428400331288756, 30.999297370609757)</t>
         </is>
       </c>
       <c r="S496" t="inlineStr">
@@ -27301,7 +27291,7 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>(52.46087955042596, 31.020131596959487)</t>
+          <t>(52.44865544985556, 31.021668617878035)</t>
         </is>
       </c>
       <c r="S499" t="inlineStr">
@@ -27408,16 +27398,6 @@
           <t xml:space="preserve">9а </t>
         </is>
       </c>
-      <c r="R501" t="inlineStr">
-        <is>
-          <t>(52.716227949313115, 30.5677107500053)</t>
-        </is>
-      </c>
-      <c r="S501" t="inlineStr">
-        <is>
-          <t>(True)</t>
-        </is>
-      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -27524,7 +27504,7 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>(54.47264941995352, 30.310217317787146)</t>
+          <t>(54.487043822326804, 30.321311701459816)</t>
         </is>
       </c>
       <c r="S503" t="inlineStr">
@@ -27581,7 +27561,7 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>(53.17072558354009, 24.50352230272887)</t>
+          <t>(53.16276269911066, 24.476069350002174)</t>
         </is>
       </c>
       <c r="S504" t="inlineStr">
@@ -27685,7 +27665,7 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>(52.521618799106726, 30.66814489999581)</t>
+          <t>(52.35549978066903, 31.03400380151635)</t>
         </is>
       </c>
       <c r="S506" t="inlineStr">
@@ -27856,7 +27836,7 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>(53.594972998283694, 25.816654464409567)</t>
+          <t>(53.591173099133464, 25.82021675000018)</t>
         </is>
       </c>
       <c r="S509" t="inlineStr">
@@ -27970,7 +27950,7 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>(54.51404570558622, 30.4328790803819)</t>
+          <t>(54.54902878586563, 30.45535404122185)</t>
         </is>
       </c>
       <c r="S511" t="inlineStr">
@@ -28022,7 +28002,7 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>(52.25156788263173, 30.78435574859127)</t>
+          <t>(52.39635604912705, 30.911316999991612)</t>
         </is>
       </c>
       <c r="S512" t="inlineStr">
@@ -28074,7 +28054,7 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>(52.521618799106726, 30.66814489999581)</t>
+          <t>(52.35549978066903, 31.03400380151635)</t>
         </is>
       </c>
       <c r="S513" t="inlineStr">
@@ -28178,7 +28158,7 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>(52.39989033201489, 30.905249483009115)</t>
+          <t>(52.42206379180423, 30.99744657277362)</t>
         </is>
       </c>
       <c r="S515" t="inlineStr">
@@ -28235,7 +28215,7 @@
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>(54.60418302816108, 30.048191297405943)</t>
+          <t>(54.54902878586563, 30.45535404122185)</t>
         </is>
       </c>
       <c r="S516" t="inlineStr">
@@ -28292,7 +28272,7 @@
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>(54.51404570558622, 30.4328790803819)</t>
+          <t>(54.54902878586563, 30.45535404122185)</t>
         </is>
       </c>
       <c r="S517" t="inlineStr">
@@ -28396,7 +28376,7 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>(52.48252259928896, 31.002274249855287)</t>
+          <t>(52.4740272252903, 31.024866395669587)</t>
         </is>
       </c>
       <c r="S519" t="inlineStr">
@@ -28510,7 +28490,7 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>(53.583368017285316, 25.79776561534977)</t>
+          <t>(53.59662394939678, 25.824571699995612)</t>
         </is>
       </c>
       <c r="S521" t="inlineStr">
@@ -28567,7 +28547,7 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>(54.60418302816108, 30.048191297405943)</t>
+          <t>(54.54902878586563, 30.45535404122185)</t>
         </is>
       </c>
       <c r="S522" t="inlineStr">
@@ -28619,7 +28599,7 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>(53.653982199870505, 23.81867904997574)</t>
+          <t>(53.65663005356977, 23.825026662169087)</t>
         </is>
       </c>
       <c r="S523" t="inlineStr">
@@ -28676,7 +28656,7 @@
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>(54.48239097072413, 26.40109369444514)</t>
+          <t>(54.48200554866672, 26.400979793981183)</t>
         </is>
       </c>
       <c r="S524" t="inlineStr">
@@ -28785,7 +28765,7 @@
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>(51.76819787412165, 27.6157765393025)</t>
+          <t>(53.594976799149194, 27.465398050001383)</t>
         </is>
       </c>
       <c r="S526" t="inlineStr">
@@ -28837,7 +28817,7 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>(53.701325599154664, 23.845746550000005)</t>
+          <t>(53.70155794728212, 23.845356458318808)</t>
         </is>
       </c>
       <c r="S527" t="inlineStr">
@@ -28889,7 +28869,7 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>(53.669699475005665, 23.80135731968207)</t>
+          <t>(53.67500875915298, 23.800333266653624)</t>
         </is>
       </c>
       <c r="S528" t="inlineStr">
@@ -28941,7 +28921,7 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>(53.69463449935271, 23.846036191758767)</t>
+          <t>(53.69468788348897, 23.84544169242188)</t>
         </is>
       </c>
       <c r="S529" t="inlineStr">
@@ -28993,7 +28973,7 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>(52.521618799106726, 30.66814489999581)</t>
+          <t>(52.35549978066903, 31.03400380151635)</t>
         </is>
       </c>
       <c r="S530" t="inlineStr">
@@ -29206,7 +29186,7 @@
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>(53.69764573345446, 23.82064544520079)</t>
+          <t>(53.69683282475356, 23.821199617205565)</t>
         </is>
       </c>
       <c r="S534" t="inlineStr">
@@ -29263,7 +29243,7 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>(54.51433972503516, 30.43997455796392)</t>
+          <t>(54.51117400999229, 30.42153404216585)</t>
         </is>
       </c>
       <c r="S535" t="inlineStr">
@@ -29320,7 +29300,7 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>(52.05015654678331, 29.266692727537414)</t>
+          <t>(52.05565922476262, 29.245825288340797)</t>
         </is>
       </c>
       <c r="S536" t="inlineStr">
@@ -29372,7 +29352,7 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>(52.39989033201489, 30.905249483009115)</t>
+          <t>(52.42206379180423, 30.99744657277362)</t>
         </is>
       </c>
       <c r="S537" t="inlineStr">
@@ -29424,7 +29404,7 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>(52.24986462297212, 31.148102938610247)</t>
+          <t>(52.44561066994741, 30.9984386271491)</t>
         </is>
       </c>
       <c r="S538" t="inlineStr">
@@ -29476,12 +29456,12 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>(52.89145224911039, 30.985887399997537)</t>
+          <t>(52.46882182596654, 31.046777304335077)</t>
         </is>
       </c>
       <c r="S539" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -29689,7 +29669,7 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>(53.67955475497425, 23.909932608477536)</t>
+          <t>(53.67623394019289, 23.91834612320958)</t>
         </is>
       </c>
       <c r="S543" t="inlineStr">
@@ -29803,7 +29783,7 @@
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>(54.149942891638865, 25.313291062524456)</t>
+          <t>(54.15083090978421, 25.31109203958297)</t>
         </is>
       </c>
       <c r="S545" t="inlineStr">
@@ -29855,7 +29835,7 @@
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>(52.389211320004264, 31.34042455844183)</t>
+          <t>(52.41378455216494, 30.957799621341028)</t>
         </is>
       </c>
       <c r="S546" t="inlineStr">
@@ -29907,7 +29887,7 @@
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>(52.54720274909126, 31.175728650001556)</t>
+          <t>(52.45254360123679, 30.96283520439253)</t>
         </is>
       </c>
       <c r="S547" t="inlineStr">
@@ -29959,7 +29939,7 @@
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>(52.28311839918128, 31.262961750010593)</t>
+          <t>(52.40172829917997, 31.067851650001256)</t>
         </is>
       </c>
       <c r="S548" t="inlineStr">
@@ -30063,7 +30043,7 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>(55.25696289953443, 30.341703849998787)</t>
+          <t>(54.441025403181825, 30.455088074414274)</t>
         </is>
       </c>
       <c r="S550" t="inlineStr">
@@ -30177,7 +30157,7 @@
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>(52.12437047431136, 29.333998520642645)</t>
+          <t>(52.133494646396315, 29.341747618370313)</t>
         </is>
       </c>
       <c r="S552" t="inlineStr">
@@ -30234,7 +30214,7 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>(52.13866739064484, 29.31728450384418)</t>
+          <t>(52.1377005523871, 29.31354744236532)</t>
         </is>
       </c>
       <c r="S553" t="inlineStr">
@@ -30343,7 +30323,7 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>(52.521618799106726, 30.66814489999581)</t>
+          <t>(52.35549978066903, 31.03400380151635)</t>
         </is>
       </c>
       <c r="S555" t="inlineStr">
@@ -30623,7 +30603,7 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>(52.12877179912556, 29.338422349997888)</t>
+          <t>(52.12858236522899, 29.33910528215298)</t>
         </is>
       </c>
       <c r="S560" t="inlineStr">
@@ -30727,7 +30707,7 @@
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>(52.437792901172834, 31.003184422943608)</t>
+          <t>(52.43819508853855, 31.004148236434688)</t>
         </is>
       </c>
       <c r="S562" t="inlineStr">
@@ -31002,7 +30982,7 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>(52.34528771399159, 30.907631663977426)</t>
+          <t>(52.42859346803545, 31.01007129369666)</t>
         </is>
       </c>
       <c r="S567" t="inlineStr">
@@ -31059,7 +31039,7 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>(54.47647982287107, 26.424365265203036)</t>
+          <t>(54.48077243363051, 26.413948503912493)</t>
         </is>
       </c>
       <c r="S568" t="inlineStr">
@@ -31282,7 +31262,7 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>(52.12437047431136, 29.333998520642645)</t>
+          <t>(52.133494646396315, 29.341747618370313)</t>
         </is>
       </c>
       <c r="S572" t="inlineStr">
@@ -31334,12 +31314,12 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>(52.18381489912343, 31.13885060000387)</t>
+          <t>(52.43116345784312, 30.9945523836257)</t>
         </is>
       </c>
       <c r="S573" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -31386,7 +31366,7 @@
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>(52.129000349145905, 31.26816810000272)</t>
+          <t>(52.425717213565285, 31.013491611808686)</t>
         </is>
       </c>
       <c r="S574" t="inlineStr">
@@ -31438,7 +31418,7 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>(55.437377358786456, 28.935056822035023)</t>
+          <t>(52.57050482000051, 30.879922510278075)</t>
         </is>
       </c>
       <c r="S575" t="inlineStr">
@@ -31552,7 +31532,7 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>(52.03624040185806, 29.213216069301573)</t>
+          <t>(52.03664184397582, 29.217474196759007)</t>
         </is>
       </c>
       <c r="S577" t="inlineStr">
@@ -31661,7 +31641,7 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>(52.15708697297876, 31.25155998321055)</t>
+          <t>(52.4392398515884, 31.005251064236905)</t>
         </is>
       </c>
       <c r="S579" t="inlineStr">
@@ -31770,7 +31750,7 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>(52.12513909917838, 31.276494699980123)</t>
+          <t>(52.417773799303646, 31.003324400007116)</t>
         </is>
       </c>
       <c r="S581" t="inlineStr">
@@ -31879,7 +31859,7 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>(52.130429183866106, 29.33179179896787)</t>
+          <t>(52.132166087089765, 29.329814202633003)</t>
         </is>
       </c>
       <c r="S583" t="inlineStr">
@@ -31936,7 +31916,7 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>(52.025747085972796, 29.21273216381271)</t>
+          <t>(52.03291789920936, 29.21278985003004)</t>
         </is>
       </c>
       <c r="S584" t="inlineStr">
@@ -31988,7 +31968,7 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>(52.54720274909126, 31.175728650001556)</t>
+          <t>(52.45254360123679, 30.96283520439253)</t>
         </is>
       </c>
       <c r="S585" t="inlineStr">
@@ -32092,7 +32072,7 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>(52.46087955042596, 31.020131596959487)</t>
+          <t>(52.44865544985556, 31.021668617878035)</t>
         </is>
       </c>
       <c r="S587" t="inlineStr">
@@ -32144,7 +32124,7 @@
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>(52.434192559925386, 30.993182449340374)</t>
+          <t>(52.43462028920039, 30.9955305416738)</t>
         </is>
       </c>
       <c r="S588" t="inlineStr">
@@ -32196,7 +32176,7 @@
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>(55.30024084968303, 28.776732149999102)</t>
+          <t>(52.57050482000051, 30.879922510278075)</t>
         </is>
       </c>
       <c r="S589" t="inlineStr">
@@ -32404,12 +32384,12 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>(52.18381489912343, 31.13885060000387)</t>
+          <t>(52.43116345784312, 30.9945523836257)</t>
         </is>
       </c>
       <c r="S593" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -32575,7 +32555,7 @@
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>(53.043502861554195, 31.15239978720267)</t>
+          <t>(52.91525253251971, 30.8903280032361)</t>
         </is>
       </c>
       <c r="S596" t="inlineStr">
@@ -32679,7 +32659,7 @@
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>(55.18778156102188, 30.205778468300103)</t>
+          <t>(52.1084682270665, 23.849084070113086)</t>
         </is>
       </c>
       <c r="S598" t="inlineStr">
@@ -32731,7 +32711,7 @@
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>(55.29729737152607, 29.622901473375162)</t>
+          <t>(52.1084682270665, 23.849084070113086)</t>
         </is>
       </c>
       <c r="S599" t="inlineStr">
@@ -32835,7 +32815,7 @@
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>(52.0612063198416, 23.82225686374033)</t>
+          <t>(52.08946033742025, 23.694193147514373)</t>
         </is>
       </c>
       <c r="S601" t="inlineStr">
@@ -33251,7 +33231,7 @@
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>(52.078576149341764, 23.745993904700168)</t>
+          <t>(52.12883802439575, 23.78441371079181)</t>
         </is>
       </c>
       <c r="S609" t="inlineStr">
@@ -33407,7 +33387,7 @@
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>(52.10686548043135, 23.735391631563104)</t>
+          <t>(52.103257549688344, 23.73390045034147)</t>
         </is>
       </c>
       <c r="S612" t="inlineStr">
@@ -33672,7 +33652,7 @@
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>(55.73395830928653, 27.053778769685433)</t>
+          <t>(52.40453147306507, 23.848215239768756)</t>
         </is>
       </c>
       <c r="S617" t="inlineStr">
@@ -33729,7 +33709,7 @@
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>(52.390505797243335, 23.824050587416274)</t>
+          <t>(52.39544804919627, 23.8250353999875)</t>
         </is>
       </c>
       <c r="S618" t="inlineStr">
@@ -33786,12 +33766,12 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>(52.2713407692284, 23.76835483649342)</t>
+          <t>(52.40288650549376, 23.820758217690596)</t>
         </is>
       </c>
       <c r="S619" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -33957,7 +33937,7 @@
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>(51.78693005992597, 24.065134951889725)</t>
+          <t>(51.786398676073226, 24.066251855057757)</t>
         </is>
       </c>
       <c r="S622" t="inlineStr">
@@ -34222,7 +34202,7 @@
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>(52.891302607526406, 30.060039256554216)</t>
+          <t>(53.08279024870273, 30.199539382877347)</t>
         </is>
       </c>
       <c r="S627" t="inlineStr">
@@ -34383,7 +34363,7 @@
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>(52.85932330372234, 30.00913754894322)</t>
+          <t>(52.85911924926017, 30.006973300045914)</t>
         </is>
       </c>
       <c r="S630" t="inlineStr">
@@ -34435,7 +34415,7 @@
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>(53.69764573345446, 23.82064544520079)</t>
+          <t>(53.69683282475356, 23.821199617205565)</t>
         </is>
       </c>
       <c r="S631" t="inlineStr">
@@ -34492,7 +34472,7 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>(52.100467286649575, 23.680543844810952)</t>
+          <t>(52.10045168223078, 23.68050701136894)</t>
         </is>
       </c>
       <c r="S632" t="inlineStr">
@@ -34544,7 +34524,7 @@
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>(55.29729737152607, 29.622901473375162)</t>
+          <t>(52.1084682270665, 23.849084070113086)</t>
         </is>
       </c>
       <c r="S633" t="inlineStr">
@@ -34752,12 +34732,12 @@
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>(53.147516452646705, 26.07292566787185)</t>
+          <t>(52.09060320007741, 23.711080849983393)</t>
         </is>
       </c>
       <c r="S637" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -35017,7 +34997,7 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>(53.1427837953717, 26.06173279885285)</t>
+          <t>(52.93164779910227, 30.01772295000666)</t>
         </is>
       </c>
       <c r="S642" t="inlineStr">
@@ -35074,7 +35054,7 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>(52.98163801260682, 30.154035742095193)</t>
+          <t>(52.895039667828506, 30.02078939645796)</t>
         </is>
       </c>
       <c r="S643" t="inlineStr">
@@ -35126,12 +35106,12 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>(51.93429011930016, 30.805396859013207)</t>
+          <t>(52.446192199522514, 30.94585631983202)</t>
         </is>
       </c>
       <c r="S644" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -35178,7 +35158,7 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>(52.35481694648953, 31.111557131696774)</t>
+          <t>(52.42893704915196, 31.007644100001652)</t>
         </is>
       </c>
       <c r="S645" t="inlineStr">
@@ -35230,7 +35210,7 @@
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>(53.15799547588832, 26.00580821592833)</t>
+          <t>(53.15751310227178, 26.004707740995617)</t>
         </is>
       </c>
       <c r="S646" t="inlineStr">
@@ -35339,7 +35319,7 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>(52.85932330372234, 30.00913754894322)</t>
+          <t>(52.88255492802582, 30.007839374093166)</t>
         </is>
       </c>
       <c r="S648" t="inlineStr">
@@ -35443,7 +35423,7 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>(53.65665716222818, 24.507108202041398)</t>
+          <t>(53.07116132258012, 29.987415013878955)</t>
         </is>
       </c>
       <c r="S650" t="inlineStr">
@@ -35495,7 +35475,7 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>(52.46087955042596, 31.020131596959487)</t>
+          <t>(52.44865544985556, 31.021668617878035)</t>
         </is>
       </c>
       <c r="S651" t="inlineStr">
@@ -35547,7 +35527,7 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>(53.13731234912248, 26.002852450009545)</t>
+          <t>(53.1324543991209, 25.98936680000542)</t>
         </is>
       </c>
       <c r="S652" t="inlineStr">
@@ -35651,7 +35631,7 @@
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S654" t="inlineStr">
@@ -35703,7 +35683,7 @@
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S655" t="inlineStr">
@@ -35760,7 +35740,7 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>(52.98163801260682, 30.154035742095193)</t>
+          <t>(52.89160978204371, 29.99178383206887)</t>
         </is>
       </c>
       <c r="S656" t="inlineStr">
@@ -35916,7 +35896,7 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>(52.07209034752644, 23.75755222839859)</t>
+          <t>(52.07237626707768, 23.758341295722687)</t>
         </is>
       </c>
       <c r="S659" t="inlineStr">
@@ -36072,7 +36052,7 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>(53.84988726683483, 27.493782482034767)</t>
+          <t>(52.1084682270665, 23.849084070113086)</t>
         </is>
       </c>
       <c r="S662" t="inlineStr">
@@ -36228,7 +36208,7 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S665" t="inlineStr">
@@ -36332,7 +36312,7 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>(52.112212599654725, 23.76025135032884)</t>
+          <t>(52.11177919473949, 23.756853753547084)</t>
         </is>
       </c>
       <c r="S667" t="inlineStr">
@@ -36384,7 +36364,7 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>(53.84988726683483, 27.493782482034767)</t>
+          <t>(52.1084682270665, 23.849084070113086)</t>
         </is>
       </c>
       <c r="S668" t="inlineStr">
@@ -36431,7 +36411,7 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>(55.42352110601496, 28.583206537601566)</t>
+          <t>(55.494086721396734, 28.71881074241836)</t>
         </is>
       </c>
       <c r="S669" t="inlineStr">
@@ -36540,7 +36520,7 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>(52.132214263365604, 25.53665487045527)</t>
+          <t>(52.096281999020746, 23.694394250673916)</t>
         </is>
       </c>
       <c r="S671" t="inlineStr">
@@ -36649,7 +36629,7 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>(52.89062696763313, 30.03475418443928)</t>
+          <t>(52.89120226096389, 30.03456385355824)</t>
         </is>
       </c>
       <c r="S673" t="inlineStr">
@@ -36758,7 +36738,7 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>(52.11015999911601, 23.727080900008524)</t>
+          <t>(52.106235099117654, 23.70854800000357)</t>
         </is>
       </c>
       <c r="S675" t="inlineStr">
@@ -36810,12 +36790,12 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>(53.13931449912471, 25.996216250013227)</t>
+          <t>(52.089082359922614, 23.724077858150533)</t>
         </is>
       </c>
       <c r="S676" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -36857,7 +36837,7 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>(55.536112106134446, 28.65715328491365)</t>
+          <t>(55.494086721396734, 28.71881074241836)</t>
         </is>
       </c>
       <c r="S677" t="inlineStr">
@@ -36914,7 +36894,7 @@
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>(52.98163801260682, 30.154035742095193)</t>
+          <t>(52.895039667828506, 30.02078939645796)</t>
         </is>
       </c>
       <c r="S678" t="inlineStr">
@@ -37023,7 +37003,7 @@
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>(52.91621431032598, 30.0439427196112)</t>
+          <t>(52.90600122727544, 30.028824475457476)</t>
         </is>
       </c>
       <c r="S680" t="inlineStr">
@@ -37127,7 +37107,7 @@
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S682" t="inlineStr">
@@ -37283,7 +37263,7 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S685" t="inlineStr">
@@ -37335,7 +37315,7 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S686" t="inlineStr">
@@ -37491,7 +37471,7 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S689" t="inlineStr">
@@ -37543,7 +37523,7 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S690" t="inlineStr">
@@ -37595,7 +37575,7 @@
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S691" t="inlineStr">
@@ -37751,7 +37731,7 @@
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S694" t="inlineStr">
@@ -37803,7 +37783,7 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S695" t="inlineStr">
@@ -37959,7 +37939,7 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>(55.531271979375255, 28.66682806682239)</t>
+          <t>(55.54116798670026, 28.63361661928005)</t>
         </is>
       </c>
       <c r="S698" t="inlineStr">
@@ -38182,7 +38162,7 @@
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>(53.07122457416802, 30.01627705102554)</t>
+          <t>(53.07116132258012, 29.987415013878955)</t>
         </is>
       </c>
       <c r="S702" t="inlineStr">
@@ -38239,7 +38219,7 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>(53.09465771477689, 30.056926362812032)</t>
+          <t>(53.069917879159256, 30.050605497878795)</t>
         </is>
       </c>
       <c r="S703" t="inlineStr">
@@ -38410,7 +38390,7 @@
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>(53.08627442538538, 25.30055139694213)</t>
+          <t>(53.08419773612842, 25.301616874102173)</t>
         </is>
       </c>
       <c r="S706" t="inlineStr">
@@ -38524,7 +38504,7 @@
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>(53.47447561852723, 25.410024733522693)</t>
+          <t>(53.4690913466153, 25.406476422744518)</t>
         </is>
       </c>
       <c r="S708" t="inlineStr">
@@ -39322,12 +39302,12 @@
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>(53.06783279912361, 25.20891485000317)</t>
+          <t>(53.09167224913591, 25.314413299999003)</t>
         </is>
       </c>
       <c r="S722" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -39436,7 +39416,7 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>(53.08627442538538, 25.30055139694213)</t>
+          <t>(53.08419773612842, 25.301616874102173)</t>
         </is>
       </c>
       <c r="S724" t="inlineStr">
@@ -39488,7 +39468,7 @@
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>(54.88888057200048, 29.81584225162761)</t>
+          <t>(53.72610649916067, 30.343448349999996)</t>
         </is>
       </c>
       <c r="S725" t="inlineStr">
@@ -39545,7 +39525,7 @@
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>(55.03750909961065, 30.803532450010856)</t>
+          <t>(55.03544329631294, 30.807040168889372)</t>
         </is>
       </c>
       <c r="S726" t="inlineStr">
@@ -39830,7 +39810,7 @@
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>(53.15575624914205, 24.447721600002453)</t>
+          <t>(53.157933449154285, 24.45228065000445)</t>
         </is>
       </c>
       <c r="S731" t="inlineStr">
@@ -39944,7 +39924,7 @@
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>(53.46628279913597, 25.410186649983604)</t>
+          <t>(53.46650239915741, 25.409839349976423)</t>
         </is>
       </c>
       <c r="S733" t="inlineStr">
@@ -40058,7 +40038,7 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>(53.07267645385492, 26.64868449718095)</t>
+          <t>(53.0827944835127, 26.640022850665062)</t>
         </is>
       </c>
       <c r="S735" t="inlineStr">
@@ -40172,7 +40152,7 @@
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>(53.17072558354009, 24.50352230272887)</t>
+          <t>(53.16276269911066, 24.476069350002174)</t>
         </is>
       </c>
       <c r="S737" t="inlineStr">
@@ -40229,7 +40209,7 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>(54.88402482775036, 28.714601742462822)</t>
+          <t>(54.884012502999504, 28.716166820549528)</t>
         </is>
       </c>
       <c r="S738" t="inlineStr">
@@ -40514,7 +40494,7 @@
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>(53.777760622301564, 24.839499906572023)</t>
+          <t>(53.603784781595316, 24.742209729591277)</t>
         </is>
       </c>
       <c r="S743" t="inlineStr">
@@ -40571,7 +40551,7 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>(53.03803666595717, 24.09124989870465)</t>
+          <t>(53.03863961521177, 24.09104750807179)</t>
         </is>
       </c>
       <c r="S744" t="inlineStr">
@@ -40685,7 +40665,7 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>(53.78460794768772, 24.84804501824795)</t>
+          <t>(53.60941671978625, 24.735290291860984)</t>
         </is>
       </c>
       <c r="S746" t="inlineStr">
@@ -40742,7 +40722,7 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>(55.396450999578946, 26.636521900007452)</t>
+          <t>(55.64096722270091, 27.026575173672207)</t>
         </is>
       </c>
       <c r="S747" t="inlineStr">
@@ -41483,7 +41463,7 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>(53.61225629944702, 24.741499450258075)</t>
+          <t>(53.611799792822765, 24.74106212970917)</t>
         </is>
       </c>
       <c r="S760" t="inlineStr">
@@ -41996,7 +41976,7 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>(55.374696149591934, 27.474223799995226)</t>
+          <t>(55.36928271902632, 27.467481953355893)</t>
         </is>
       </c>
       <c r="S769" t="inlineStr">
@@ -42043,7 +42023,7 @@
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S770" t="inlineStr">
@@ -42546,7 +42526,7 @@
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>(54.81396224965296, 29.708299200017006)</t>
+          <t>(54.8034112494383, 29.677325050075982)</t>
         </is>
       </c>
       <c r="S779" t="inlineStr">
@@ -42603,7 +42583,7 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>(52.78797895370666, 27.769283303381773)</t>
+          <t>(53.06216581985719, 28.84985798239478)</t>
         </is>
       </c>
       <c r="S780" t="inlineStr">
@@ -42660,7 +42640,7 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>(52.366383490226276, 25.174255872831598)</t>
+          <t>(53.06216581985719, 28.84985798239478)</t>
         </is>
       </c>
       <c r="S781" t="inlineStr">
@@ -42712,7 +42692,7 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>(54.9881062994879, 28.840291899988706)</t>
+          <t>(53.72610649916067, 30.343448349999996)</t>
         </is>
       </c>
       <c r="S782" t="inlineStr">
@@ -42816,7 +42796,7 @@
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S784" t="inlineStr">
@@ -42863,7 +42843,7 @@
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S785" t="inlineStr">
@@ -42920,7 +42900,7 @@
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>(52.78797895370666, 27.769283303381773)</t>
+          <t>(53.06216581985719, 28.84985798239478)</t>
         </is>
       </c>
       <c r="S786" t="inlineStr">
@@ -42977,7 +42957,7 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>(53.35070053902287, 25.960324452973147)</t>
+          <t>(53.06216581985719, 28.84985798239478)</t>
         </is>
       </c>
       <c r="S787" t="inlineStr">
@@ -43034,7 +43014,7 @@
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>(52.366383490226276, 25.174255872831598)</t>
+          <t>(53.06216581985719, 28.84985798239478)</t>
         </is>
       </c>
       <c r="S788" t="inlineStr">
@@ -43242,7 +43222,7 @@
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>(53.85413019717261, 27.605713289600455)</t>
+          <t>(53.8535289591258, 27.60621449572814)</t>
         </is>
       </c>
       <c r="S792" t="inlineStr">
@@ -43299,7 +43279,7 @@
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>(54.25541967785981, 28.2327869832044)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S793" t="inlineStr">
@@ -43346,7 +43326,7 @@
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S794" t="inlineStr">
@@ -43393,12 +43373,12 @@
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>(53.90928035658298, 27.779229672711594)</t>
+          <t>(53.94707995793047, 27.685879980453336)</t>
         </is>
       </c>
       <c r="S795" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -43487,7 +43467,7 @@
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>(54.47841324708585, 26.898869137301308)</t>
+          <t>(53.878089764278414, 27.60796635991686)</t>
         </is>
       </c>
       <c r="S797" t="inlineStr">
@@ -43544,7 +43524,7 @@
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>(55.678255399685504, 30.358521700001827)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S798" t="inlineStr">
@@ -43591,7 +43571,7 @@
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S799" t="inlineStr">
@@ -43638,7 +43618,7 @@
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>(53.46103141464373, 27.207540952176142)</t>
+          <t>(53.88621182003746, 27.584790716821132)</t>
         </is>
       </c>
       <c r="S800" t="inlineStr">
@@ -43695,7 +43675,7 @@
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>(55.678255399685504, 30.358521700001827)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S801" t="inlineStr">
@@ -43742,7 +43722,7 @@
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S802" t="inlineStr">
@@ -43846,7 +43826,7 @@
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>(55.678255399685504, 30.358521700001827)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S804" t="inlineStr">
@@ -43940,7 +43920,7 @@
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>(54.11973844925631, 28.344287150013074)</t>
+          <t>(53.9112561393054, 27.425309404652662)</t>
         </is>
       </c>
       <c r="S806" t="inlineStr">
@@ -43997,7 +43977,7 @@
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>(55.29960153574513, 27.857165689045214)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S807" t="inlineStr">
@@ -44091,7 +44071,7 @@
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>(53.865526698358515, 27.609485793974017)</t>
+          <t>(53.86583186019853, 27.610537062241068)</t>
         </is>
       </c>
       <c r="S809" t="inlineStr">
@@ -44138,7 +44118,7 @@
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S810" t="inlineStr">
@@ -44185,7 +44165,7 @@
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>(53.48351449919027, 26.749476999958937)</t>
+          <t>(53.92554999829816, 27.55556684762018)</t>
         </is>
       </c>
       <c r="S811" t="inlineStr">
@@ -44341,7 +44321,7 @@
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S814" t="inlineStr">
@@ -44512,7 +44492,7 @@
       </c>
       <c r="R817" t="inlineStr">
         <is>
-          <t>(54.39220779927104, 27.362811699997195)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S817" t="inlineStr">
@@ -44559,12 +44539,12 @@
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>(54.31465019884275, 26.88337295903888)</t>
+          <t>(53.91637415571494, 27.578844052354043)</t>
         </is>
       </c>
       <c r="S818" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -44777,7 +44757,7 @@
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>(54.39220779927104, 27.362811699997195)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S822" t="inlineStr">
@@ -44819,7 +44799,7 @@
       </c>
       <c r="R823" t="inlineStr">
         <is>
-          <t>(53.91155617135809, 27.579446093332134)</t>
+          <t>(53.91116985183881, 27.579245334668432)</t>
         </is>
       </c>
       <c r="S823" t="inlineStr">
@@ -44866,7 +44846,7 @@
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S824" t="inlineStr">
@@ -44923,7 +44903,7 @@
       </c>
       <c r="R825" t="inlineStr">
         <is>
-          <t>(53.8890228114786, 26.739048385420308)</t>
+          <t>(54.08904499931574, 26.52762050000058)</t>
         </is>
       </c>
       <c r="S825" t="inlineStr">
@@ -44970,7 +44950,7 @@
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S826" t="inlineStr">
@@ -45027,7 +45007,7 @@
       </c>
       <c r="R827" t="inlineStr">
         <is>
-          <t>(55.678255399685504, 30.358521700001827)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S827" t="inlineStr">
@@ -45272,7 +45252,7 @@
       </c>
       <c r="R832" t="inlineStr">
         <is>
-          <t>(55.678255399685504, 30.358521700001827)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S832" t="inlineStr">
@@ -45319,7 +45299,7 @@
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>(53.85874515363888, 27.439065042168036)</t>
+          <t>(53.85846389839653, 27.440392409108547)</t>
         </is>
       </c>
       <c r="S833" t="inlineStr">
@@ -45366,7 +45346,7 @@
       </c>
       <c r="R834" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S834" t="inlineStr">
@@ -45460,7 +45440,7 @@
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S836" t="inlineStr">
@@ -45569,7 +45549,7 @@
       </c>
       <c r="R838" t="inlineStr">
         <is>
-          <t>(54.09059590606749, 28.30028177910586)</t>
+          <t>(54.09136970742686, 28.297902784991777)</t>
         </is>
       </c>
       <c r="S838" t="inlineStr">
@@ -45616,7 +45596,7 @@
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S839" t="inlineStr">
@@ -45663,7 +45643,7 @@
       </c>
       <c r="R840" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S840" t="inlineStr">
@@ -45710,7 +45690,7 @@
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S841" t="inlineStr">
@@ -45824,7 +45804,7 @@
       </c>
       <c r="R843" t="inlineStr">
         <is>
-          <t>(55.678255399685504, 30.358521700001827)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S843" t="inlineStr">
@@ -45871,7 +45851,7 @@
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S844" t="inlineStr">
@@ -45918,7 +45898,7 @@
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S845" t="inlineStr">
@@ -46084,7 +46064,7 @@
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>(54.09609241284844, 28.304678360932137)</t>
+          <t>(54.09705684921275, 28.303577000002214)</t>
         </is>
       </c>
       <c r="S848" t="inlineStr">
@@ -46287,7 +46267,7 @@
       </c>
       <c r="R852" t="inlineStr">
         <is>
-          <t>(55.678255399685504, 30.358521700001827)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S852" t="inlineStr">
@@ -46438,7 +46418,7 @@
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>(53.8955568042055, 26.724499241172172)</t>
+          <t>(53.849897918818584, 27.455637466746126)</t>
         </is>
       </c>
       <c r="S855" t="inlineStr">
@@ -46542,7 +46522,7 @@
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>(54.25541967785981, 28.2327869832044)</t>
+          <t>(54.19522408995116, 28.572281182594118)</t>
         </is>
       </c>
       <c r="S857" t="inlineStr">
@@ -46589,7 +46569,7 @@
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S858" t="inlineStr">
@@ -46636,7 +46616,7 @@
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S859" t="inlineStr">
@@ -46683,7 +46663,7 @@
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S860" t="inlineStr">
@@ -46735,7 +46715,7 @@
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S861" t="inlineStr">
@@ -46792,7 +46772,7 @@
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>(54.18027377511012, 28.47334221355935)</t>
+          <t>(54.18457489923851, 28.472909750002284)</t>
         </is>
       </c>
       <c r="S862" t="inlineStr">
@@ -46928,7 +46908,7 @@
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S865" t="inlineStr">
@@ -46975,7 +46955,7 @@
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>(53.84659171517719, 27.495484190898033)</t>
+          <t>(53.844386159890234, 27.527374002582945)</t>
         </is>
       </c>
       <c r="S866" t="inlineStr">
@@ -47136,7 +47116,7 @@
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>(53.68890959916959, 31.704814750005074)</t>
+          <t>(53.87891664917484, 30.35624360000213)</t>
         </is>
       </c>
       <c r="S869" t="inlineStr">
@@ -47463,7 +47443,7 @@
       </c>
       <c r="R875" t="inlineStr">
         <is>
-          <t>(53.57370045350372, 31.36838636294077)</t>
+          <t>(53.89728439902421, 30.293980383337637)</t>
         </is>
       </c>
       <c r="S875" t="inlineStr">
@@ -47515,12 +47495,12 @@
       </c>
       <c r="R876" t="inlineStr">
         <is>
-          <t>(53.52973422070363, 30.243376143517718)</t>
+          <t>(53.929355414727176, 30.35833988957802)</t>
         </is>
       </c>
       <c r="S876" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -47567,7 +47547,7 @@
       </c>
       <c r="R877" t="inlineStr">
         <is>
-          <t>(53.61692463564162, 31.975371360009802)</t>
+          <t>(53.90387511925574, 30.368942214586188)</t>
         </is>
       </c>
       <c r="S877" t="inlineStr">
@@ -47619,7 +47599,7 @@
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>(53.73602274999727, 30.260868918528566)</t>
+          <t>(53.89705738292389, 30.332564646146693)</t>
         </is>
       </c>
       <c r="S878" t="inlineStr">
@@ -48050,12 +48030,12 @@
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>(53.32937724219651, 31.384834547302265)</t>
+          <t>(53.91699275172363, 30.348768307448747)</t>
         </is>
       </c>
       <c r="S886" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -48107,7 +48087,7 @@
       </c>
       <c r="R887" t="inlineStr">
         <is>
-          <t>(53.69492979867884, 31.706579329941853)</t>
+          <t>(53.696732969679964, 31.705695174219095)</t>
         </is>
       </c>
       <c r="S887" t="inlineStr">
@@ -48164,7 +48144,7 @@
       </c>
       <c r="R888" t="inlineStr">
         <is>
-          <t>(53.406292953119255, 32.56950282174908)</t>
+          <t>(53.404812749116765, 32.560070900001406)</t>
         </is>
       </c>
       <c r="S888" t="inlineStr">
@@ -48216,7 +48196,7 @@
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>(53.19813978868208, 29.22561785193686)</t>
+          <t>(53.19729127415332, 29.22573644543275)</t>
         </is>
       </c>
       <c r="S889" t="inlineStr">
@@ -48268,7 +48248,7 @@
       </c>
       <c r="R890" t="inlineStr">
         <is>
-          <t>(53.1961139017469, 29.220879217757595)</t>
+          <t>(53.1859714904756, 29.226596510673183)</t>
         </is>
       </c>
       <c r="S890" t="inlineStr">
@@ -48325,7 +48305,7 @@
       </c>
       <c r="R891" t="inlineStr">
         <is>
-          <t>(53.655126026920975, 31.728413540373094)</t>
+          <t>(53.66785794421722, 31.722822858296546)</t>
         </is>
       </c>
       <c r="S891" t="inlineStr">
@@ -48377,7 +48357,7 @@
       </c>
       <c r="R892" t="inlineStr">
         <is>
-          <t>(53.926528119494705, 30.341666429280885)</t>
+          <t>(53.90475420274019, 30.38106035045089)</t>
         </is>
       </c>
       <c r="S892" t="inlineStr">
@@ -48429,12 +48409,12 @@
       </c>
       <c r="R893" t="inlineStr">
         <is>
-          <t>(53.14587829918491, 29.178344850013023)</t>
+          <t>(53.858602899209025, 30.47324029998119)</t>
         </is>
       </c>
       <c r="S893" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -48481,7 +48461,7 @@
       </c>
       <c r="R894" t="inlineStr">
         <is>
-          <t>(53.866623327815766, 30.36834891703928)</t>
+          <t>(53.86622356182368, 30.369129434622337)</t>
         </is>
       </c>
       <c r="S894" t="inlineStr">
@@ -48704,7 +48684,7 @@
       </c>
       <c r="R898" t="inlineStr">
         <is>
-          <t>(53.14090372247503, 29.215082997713193)</t>
+          <t>(53.13946694916296, 29.215579250062227)</t>
         </is>
       </c>
       <c r="S898" t="inlineStr">
@@ -48756,7 +48736,7 @@
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>(53.89251894646706, 27.543622259322927)</t>
+          <t>(53.160394949283585, 29.144735933241453)</t>
         </is>
       </c>
       <c r="S899" t="inlineStr">
@@ -48865,7 +48845,7 @@
       </c>
       <c r="R901" t="inlineStr">
         <is>
-          <t>(53.90646683338909, 30.403379987951897)</t>
+          <t>(53.904674849249545, 30.2860546499928)</t>
         </is>
       </c>
       <c r="S901" t="inlineStr">
@@ -49244,7 +49224,7 @@
       </c>
       <c r="R908" t="inlineStr">
         <is>
-          <t>(53.16107524911983, 29.196313500004848)</t>
+          <t>(53.16327413412569, 29.195516348523498)</t>
         </is>
       </c>
       <c r="S908" t="inlineStr">
@@ -49296,7 +49276,7 @@
       </c>
       <c r="R909" t="inlineStr">
         <is>
-          <t>(54.28547824343555, 30.99132309468007)</t>
+          <t>(53.91677691062376, 30.305610536102062)</t>
         </is>
       </c>
       <c r="S909" t="inlineStr">
@@ -49353,7 +49333,7 @@
       </c>
       <c r="R910" t="inlineStr">
         <is>
-          <t>(54.300615322573286, 30.98083319319372)</t>
+          <t>(54.30165007453699, 30.986316310373756)</t>
         </is>
       </c>
       <c r="S910" t="inlineStr">
@@ -49405,7 +49385,7 @@
       </c>
       <c r="R911" t="inlineStr">
         <is>
-          <t>(53.73602274999727, 30.260868918528566)</t>
+          <t>(53.89705738292389, 30.332564646146693)</t>
         </is>
       </c>
       <c r="S911" t="inlineStr">
@@ -49457,7 +49437,7 @@
       </c>
       <c r="R912" t="inlineStr">
         <is>
-          <t>(53.68890959916959, 31.704814750005074)</t>
+          <t>(53.87891664917484, 30.35624360000213)</t>
         </is>
       </c>
       <c r="S912" t="inlineStr">
@@ -49737,7 +49717,7 @@
       </c>
       <c r="R917" t="inlineStr">
         <is>
-          <t>(53.1961139017469, 29.220879217757595)</t>
+          <t>(53.1859714904756, 29.226596510673183)</t>
         </is>
       </c>
       <c r="S917" t="inlineStr">
@@ -49789,7 +49769,7 @@
       </c>
       <c r="R918" t="inlineStr">
         <is>
-          <t>(53.07451534913831, 29.466596650008363)</t>
+          <t>(53.138696213831665, 29.199633189247006)</t>
         </is>
       </c>
       <c r="S918" t="inlineStr">
@@ -49846,7 +49826,7 @@
       </c>
       <c r="R919" t="inlineStr">
         <is>
-          <t>(55.69269449968329, 27.53817895000916)</t>
+          <t>(53.66785794421722, 31.722822858296546)</t>
         </is>
       </c>
       <c r="S919" t="inlineStr">
@@ -49950,7 +49930,7 @@
       </c>
       <c r="R921" t="inlineStr">
         <is>
-          <t>(53.90464995136675, 30.380568119443538)</t>
+          <t>(53.90475420274019, 30.38106035045089)</t>
         </is>
       </c>
       <c r="S921" t="inlineStr">
@@ -50116,7 +50096,7 @@
       </c>
       <c r="R924" t="inlineStr">
         <is>
-          <t>(53.61962384915035, 29.126401800001325)</t>
+          <t>(53.48108256774243, 29.350173207687998)</t>
         </is>
       </c>
       <c r="S924" t="inlineStr">
@@ -50381,7 +50361,7 @@
       </c>
       <c r="R929" t="inlineStr">
         <is>
-          <t>(53.73602274999727, 30.260868918528566)</t>
+          <t>(53.89705738292389, 30.332564646146693)</t>
         </is>
       </c>
       <c r="S929" t="inlineStr">
@@ -50542,12 +50522,12 @@
       </c>
       <c r="R932" t="inlineStr">
         <is>
-          <t>(53.91420532077927, 30.26740975967108)</t>
+          <t>(53.858602899209025, 30.47324029998119)</t>
         </is>
       </c>
       <c r="S932" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -50599,7 +50579,7 @@
       </c>
       <c r="R933" t="inlineStr">
         <is>
-          <t>(53.3350531915081, 31.403718165249224)</t>
+          <t>(53.323865626408306, 31.40858601008208)</t>
         </is>
       </c>
       <c r="S933" t="inlineStr">
@@ -50708,7 +50688,7 @@
       </c>
       <c r="R935" t="inlineStr">
         <is>
-          <t>(53.164852213008444, 29.17933567060016)</t>
+          <t>(53.16127939122751, 29.174332850723808)</t>
         </is>
       </c>
       <c r="S935" t="inlineStr">
@@ -50926,7 +50906,7 @@
       </c>
       <c r="R939" t="inlineStr">
         <is>
-          <t>(53.45438442449742, 31.01243662919874)</t>
+          <t>(53.8963926477348, 30.334318683996678)</t>
         </is>
       </c>
       <c r="S939" t="inlineStr">
@@ -51196,7 +51176,7 @@
       </c>
       <c r="R944" t="inlineStr">
         <is>
-          <t>(53.16487261587056, 29.19949311451018)</t>
+          <t>(53.16954255004919, 29.190008567219106)</t>
         </is>
       </c>
       <c r="S944" t="inlineStr">
@@ -51409,7 +51389,7 @@
       </c>
       <c r="R948" t="inlineStr">
         <is>
-          <t>(53.86761534946405, 30.249317900001614)</t>
+          <t>(53.9254693272131, 30.339536729132938)</t>
         </is>
       </c>
       <c r="S948" t="inlineStr">
@@ -51461,7 +51441,7 @@
       </c>
       <c r="R949" t="inlineStr">
         <is>
-          <t>(53.928731503007235, 30.251330766048248)</t>
+          <t>(53.9279113662273, 30.25099517046434)</t>
         </is>
       </c>
       <c r="S949" t="inlineStr">
@@ -51570,12 +51550,12 @@
       </c>
       <c r="R951" t="inlineStr">
         <is>
-          <t>(53.693075577021986, 31.698889834532476)</t>
+          <t>(53.88615855820908, 30.274971466605393)</t>
         </is>
       </c>
       <c r="S951" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -51736,7 +51716,7 @@
       </c>
       <c r="R954" t="inlineStr">
         <is>
-          <t>(53.29324998078796, 28.63577129698372)</t>
+          <t>(53.297787985954685, 28.638461242884485)</t>
         </is>
       </c>
       <c r="S954" t="inlineStr">
@@ -51788,7 +51768,7 @@
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>(53.89251894646706, 27.543622259322927)</t>
+          <t>(53.160394949283585, 29.144735933241453)</t>
         </is>
       </c>
       <c r="S955" t="inlineStr">
@@ -51840,7 +51820,7 @@
       </c>
       <c r="R956" t="inlineStr">
         <is>
-          <t>(53.166291446194364, 29.156669660562795)</t>
+          <t>(53.160394949283585, 29.144735933241453)</t>
         </is>
       </c>
       <c r="S956" t="inlineStr">
@@ -51897,7 +51877,7 @@
       </c>
       <c r="R957" t="inlineStr">
         <is>
-          <t>(54.20274234321193, 30.294904291704153)</t>
+          <t>(54.19606410322215, 30.302532367864423)</t>
         </is>
       </c>
       <c r="S957" t="inlineStr">
@@ -51949,7 +51929,7 @@
       </c>
       <c r="R958" t="inlineStr">
         <is>
-          <t>(53.73602274999727, 30.260868918528566)</t>
+          <t>(53.89705738292389, 30.332564646146693)</t>
         </is>
       </c>
       <c r="S958" t="inlineStr">
@@ -52053,12 +52033,12 @@
       </c>
       <c r="R960" t="inlineStr">
         <is>
-          <t>(53.605740208336016, 31.95143669917229)</t>
+          <t>(53.90457112689425, 30.344182716271586)</t>
         </is>
       </c>
       <c r="S960" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -52219,7 +52199,7 @@
       </c>
       <c r="R963" t="inlineStr">
         <is>
-          <t>(52.10391915859807, 29.01143099998603)</t>
+          <t>(53.33434479915769, 32.03754029999193)</t>
         </is>
       </c>
       <c r="S963" t="inlineStr">
@@ -52323,7 +52303,7 @@
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>(53.11078530493362, 29.199292471314187)</t>
+          <t>(53.12417707326907, 29.238409225698852)</t>
         </is>
       </c>
       <c r="S965" t="inlineStr">
@@ -52437,7 +52417,7 @@
       </c>
       <c r="R967" t="inlineStr">
         <is>
-          <t>(54.24382582454679, 29.79533906052917)</t>
+          <t>(54.2474719436429, 29.79661213909984)</t>
         </is>
       </c>
       <c r="S967" t="inlineStr">
@@ -52489,7 +52469,7 @@
       </c>
       <c r="R968" t="inlineStr">
         <is>
-          <t>(53.8712250323098, 30.333403686688527)</t>
+          <t>(53.86906686870532, 30.336593015548846)</t>
         </is>
       </c>
       <c r="S968" t="inlineStr">
@@ -52541,7 +52521,7 @@
       </c>
       <c r="R969" t="inlineStr">
         <is>
-          <t>(53.61692463564162, 31.975371360009802)</t>
+          <t>(53.90387511925574, 30.368942214586188)</t>
         </is>
       </c>
       <c r="S969" t="inlineStr">
@@ -52593,12 +52573,12 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>(53.35454861559569, 32.05156922909906)</t>
+          <t>(53.89624586191689, 30.33794599570848)</t>
         </is>
       </c>
       <c r="S970" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -52863,7 +52843,7 @@
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>(53.17614384913536, 29.228636550000875)</t>
+          <t>(53.160049033233456, 29.23260159992212)</t>
         </is>
       </c>
       <c r="S975" t="inlineStr">
@@ -52972,12 +52952,12 @@
       </c>
       <c r="R977" t="inlineStr">
         <is>
-          <t>(53.56944674916772, 31.357179150003578)</t>
+          <t>(53.858236997725946, 30.369803445556524)</t>
         </is>
       </c>
       <c r="S977" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -53024,7 +53004,7 @@
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>(53.73602274999727, 30.260868918528566)</t>
+          <t>(53.89705738292389, 30.332564646146693)</t>
         </is>
       </c>
       <c r="S978" t="inlineStr">
@@ -53076,7 +53056,7 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>(53.734754233369095, 30.261445115359)</t>
+          <t>(53.90186012365903, 30.33718981189721)</t>
         </is>
       </c>
       <c r="S979" t="inlineStr">
@@ -53128,7 +53108,7 @@
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>(53.851851899374886, 30.3316203)</t>
+          <t>(53.8620063668604, 30.307593320698327)</t>
         </is>
       </c>
       <c r="S980" t="inlineStr">
@@ -53232,7 +53212,7 @@
       </c>
       <c r="R982" t="inlineStr">
         <is>
-          <t>(53.860161049173605, 27.68795009999666)</t>
+          <t>(53.858602899209025, 30.47324029998119)</t>
         </is>
       </c>
       <c r="S982" t="inlineStr">
@@ -53284,7 +53264,7 @@
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>(53.89251894646706, 27.543622259322927)</t>
+          <t>(53.160394949283585, 29.144735933241453)</t>
         </is>
       </c>
       <c r="S983" t="inlineStr">
@@ -53393,7 +53373,7 @@
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>(55.218389899510406, 29.44762134999834)</t>
+          <t>(53.858602899209025, 30.47324029998119)</t>
         </is>
       </c>
       <c r="S985" t="inlineStr">
@@ -53497,7 +53477,7 @@
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>(53.926528119494705, 30.341666429280885)</t>
+          <t>(53.90475420274019, 30.38106035045089)</t>
         </is>
       </c>
       <c r="S987" t="inlineStr">
@@ -53549,12 +53529,12 @@
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>(53.92177199920615, 30.211259949989973)</t>
+          <t>(53.916263942441695, 30.375283190700166)</t>
         </is>
       </c>
       <c r="S988" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -53601,7 +53581,7 @@
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>(53.96238905117866, 30.29736552897302)</t>
+          <t>(53.90948208239137, 30.334895207100615)</t>
         </is>
       </c>
       <c r="S989" t="inlineStr">
@@ -53653,7 +53633,7 @@
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>(53.68447957120077, 30.37776384292866)</t>
+          <t>(53.92647362890706, 30.344266763798057)</t>
         </is>
       </c>
       <c r="S990" t="inlineStr">
@@ -53762,12 +53742,12 @@
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>(53.108443154128935, 29.566050620935503)</t>
+          <t>(53.13556278403535, 29.224379303453716)</t>
         </is>
       </c>
       <c r="S992" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -53866,7 +53846,7 @@
       </c>
       <c r="R994" t="inlineStr">
         <is>
-          <t>(53.87120644840368, 30.318634116387745)</t>
+          <t>(53.86897173708887, 30.33670723941146)</t>
         </is>
       </c>
       <c r="S994" t="inlineStr">
@@ -53970,12 +53950,12 @@
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>(53.92177199920615, 30.211259949989973)</t>
+          <t>(53.916263942441695, 30.375283190700166)</t>
         </is>
       </c>
       <c r="S996" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -54022,7 +54002,7 @@
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>(53.57370045350372, 31.36838636294077)</t>
+          <t>(53.89728439902421, 30.293980383337637)</t>
         </is>
       </c>
       <c r="S997" t="inlineStr">
@@ -54074,7 +54054,7 @@
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>(53.96866174919407, 30.303574699991973)</t>
+          <t>(53.90866325380342, 30.339412272423278)</t>
         </is>
       </c>
       <c r="S998" t="inlineStr">
@@ -54126,7 +54106,7 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>(55.51951720784114, 28.582163350014007)</t>
+          <t>(53.66785794421722, 31.722822858296546)</t>
         </is>
       </c>
       <c r="S999" t="inlineStr">
@@ -54183,7 +54163,7 @@
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>(53.61340968162357, 31.96693734268299)</t>
+          <t>(53.621134571024314, 31.978008784687685)</t>
         </is>
       </c>
       <c r="S1000" t="inlineStr">
@@ -54287,7 +54267,7 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>(53.14761438002457, 29.221144114149602)</t>
+          <t>(53.147100837635875, 29.223085364070446)</t>
         </is>
       </c>
       <c r="S1002" t="inlineStr">
@@ -54339,12 +54319,12 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>(53.92177199920615, 30.211259949989973)</t>
+          <t>(53.916263942441695, 30.375283190700166)</t>
         </is>
       </c>
       <c r="S1003" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -54391,7 +54371,7 @@
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>(53.87258169922425, 30.310021050048448)</t>
+          <t>(53.87165537173901, 30.310341820797387)</t>
         </is>
       </c>
       <c r="S1004" t="inlineStr">
@@ -54443,7 +54423,7 @@
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>(53.85735681790334, 30.26401415866939)</t>
+          <t>(53.923448365855364, 30.337356254042906)</t>
         </is>
       </c>
       <c r="S1005" t="inlineStr">
@@ -54495,12 +54475,12 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>(53.92177199920615, 30.211259949989973)</t>
+          <t>(53.916263942441695, 30.375283190700166)</t>
         </is>
       </c>
       <c r="S1006" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -54713,7 +54693,7 @@
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>(53.149121005714775, 29.229765035027665)</t>
+          <t>(53.14869118352513, 29.230330321501352)</t>
         </is>
       </c>
       <c r="S1010" t="inlineStr">
@@ -54765,12 +54745,12 @@
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>(53.88286162554627, 30.493035739017163)</t>
+          <t>(53.948178855119025, 30.370156414391932)</t>
         </is>
       </c>
       <c r="S1011" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -54864,7 +54844,7 @@
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>(54.33893160072813, 29.27298906833734)</t>
+          <t>(53.89604733307747, 27.545037213521333)</t>
         </is>
       </c>
       <c r="S1013" t="inlineStr">
@@ -54911,7 +54891,7 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>(54.32687168147423, 29.138280090118574)</t>
+          <t>(53.88688604627131, 27.536638564532876)</t>
         </is>
       </c>
       <c r="S1014" t="inlineStr">
@@ -54958,7 +54938,7 @@
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>(54.499517095318474, 26.91807117037553)</t>
+          <t>(53.89638673944932, 27.551553135830066)</t>
         </is>
       </c>
       <c r="S1015" t="inlineStr">
@@ -55005,7 +54985,7 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>(54.097328220416365, 28.294991956751684)</t>
+          <t>(53.898731507910604, 27.5615832409199)</t>
         </is>
       </c>
       <c r="S1016" t="inlineStr">
@@ -55099,7 +55079,7 @@
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1018" t="inlineStr">
@@ -55287,7 +55267,7 @@
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>(54.41763329578261, 27.832915467126476)</t>
+          <t>(53.87830260516169, 27.55894875646333)</t>
         </is>
       </c>
       <c r="S1022" t="inlineStr">
@@ -55381,12 +55361,12 @@
       </c>
       <c r="R1024" t="inlineStr">
         <is>
-          <t>(53.83649729918043, 28.992860899999773)</t>
+          <t>(53.926146590228555, 27.502368179687167)</t>
         </is>
       </c>
       <c r="S1024" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -55475,7 +55455,7 @@
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>(54.327373499312124, 29.141130800028566)</t>
+          <t>(53.88943119501841, 27.539024398807726)</t>
         </is>
       </c>
       <c r="S1026" t="inlineStr">
@@ -55522,7 +55502,7 @@
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>(54.327041349302846, 29.139362500037432)</t>
+          <t>(53.88816211865186, 27.53809156363813)</t>
         </is>
       </c>
       <c r="S1027" t="inlineStr">
@@ -55569,7 +55549,7 @@
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>(54.49944881513643, 26.921068632009625)</t>
+          <t>(53.899285794276, 27.557200639466796)</t>
         </is>
       </c>
       <c r="S1028" t="inlineStr">
@@ -55616,12 +55596,12 @@
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>(54.31779969921201, 29.13839578681441)</t>
+          <t>(53.89837036091795, 27.560643985878244)</t>
         </is>
       </c>
       <c r="S1029" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -55710,7 +55690,7 @@
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>(54.31408448981882, 26.883836759889586)</t>
+          <t>(53.920230678202785, 27.574549536383355)</t>
         </is>
       </c>
       <c r="S1031" t="inlineStr">
@@ -55804,7 +55784,7 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>(54.35118076073582, 29.274264159376383)</t>
+          <t>(53.91632311668606, 27.4939608618312)</t>
         </is>
       </c>
       <c r="S1033" t="inlineStr">
@@ -55851,7 +55831,7 @@
       </c>
       <c r="R1034" t="inlineStr">
         <is>
-          <t>(53.90980582218483, 27.492716074414158)</t>
+          <t>(53.90972372143394, 27.492738074136724)</t>
         </is>
       </c>
       <c r="S1034" t="inlineStr">
@@ -55898,7 +55878,7 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1035" t="inlineStr">
@@ -55945,7 +55925,7 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1036" t="inlineStr">
@@ -55992,7 +55972,7 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1037" t="inlineStr">
@@ -56039,7 +56019,7 @@
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>(53.89665335752364, 27.458603469893482)</t>
+          <t>(53.89949551289843, 27.451886746397495)</t>
         </is>
       </c>
       <c r="S1038" t="inlineStr">
@@ -56086,7 +56066,7 @@
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1039" t="inlineStr">
@@ -56133,7 +56113,7 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>(53.2247071706323, 26.755052406837915)</t>
+          <t>(53.849563085516685, 27.465191844517896)</t>
         </is>
       </c>
       <c r="S1040" t="inlineStr">
@@ -56180,12 +56160,12 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>(52.73085779943896, 27.447248502895647)</t>
+          <t>(53.89359269369134, 27.522454590111813)</t>
         </is>
       </c>
       <c r="S1041" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -56227,7 +56207,7 @@
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>(53.04240184911516, 28.26278224999846)</t>
+          <t>(53.89169105767505, 27.559843049617083)</t>
         </is>
       </c>
       <c r="S1042" t="inlineStr">
@@ -56274,7 +56254,7 @@
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>(53.827718649184845, 28.99581214999856)</t>
+          <t>(53.855747853421484, 27.564501022742306)</t>
         </is>
       </c>
       <c r="S1043" t="inlineStr">
@@ -56368,7 +56348,7 @@
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>(53.83489729917162, 27.959555549994928)</t>
+          <t>(53.84595541849738, 27.63606768117554)</t>
         </is>
       </c>
       <c r="S1045" t="inlineStr">
@@ -56415,7 +56395,7 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1046" t="inlineStr">
@@ -56509,7 +56489,7 @@
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>(54.31731928986269, 26.842505944813794)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1048" t="inlineStr">
@@ -56603,7 +56583,7 @@
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1050" t="inlineStr">
@@ -56650,7 +56630,7 @@
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>(53.89106792550539, 27.420811481920044)</t>
+          <t>(53.89074035830282, 27.42034014141829)</t>
         </is>
       </c>
       <c r="S1051" t="inlineStr">
@@ -56744,7 +56724,7 @@
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>(53.81864388482332, 27.467666064032585)</t>
+          <t>(53.85534493414002, 27.43364766625042)</t>
         </is>
       </c>
       <c r="S1053" t="inlineStr">
@@ -56791,7 +56771,7 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>(53.86939805069155, 27.569244636454357)</t>
+          <t>(53.86741725232365, 27.569737386913893)</t>
         </is>
       </c>
       <c r="S1054" t="inlineStr">
@@ -57120,7 +57100,7 @@
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>(54.34114474927605, 29.277083399998393)</t>
+          <t>(53.884351500059935, 27.54012788215166)</t>
         </is>
       </c>
       <c r="S1061" t="inlineStr">
@@ -57167,7 +57147,7 @@
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>(53.8339211992219, 27.466716899998048)</t>
+          <t>(53.88352563062913, 27.552388411464158)</t>
         </is>
       </c>
       <c r="S1062" t="inlineStr">
@@ -57214,7 +57194,7 @@
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>(53.84429130295927, 27.533024233912865)</t>
+          <t>(53.84455179924194, 27.53128800000242)</t>
         </is>
       </c>
       <c r="S1063" t="inlineStr">
@@ -57355,7 +57335,7 @@
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>(53.90164940459725, 27.547456881956915)</t>
+          <t>(53.901044914618915, 27.546866994311927)</t>
         </is>
       </c>
       <c r="S1066" t="inlineStr">
@@ -57496,7 +57476,7 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>(54.33194370289389, 26.841192374576007)</t>
+          <t>(53.95255144448075, 27.602491126669488)</t>
         </is>
       </c>
       <c r="S1069" t="inlineStr">
@@ -57543,7 +57523,7 @@
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>(53.95077488298543, 27.615930747561283)</t>
+          <t>(53.95063349943491, 27.61510850001779)</t>
         </is>
       </c>
       <c r="S1070" t="inlineStr">
@@ -57590,7 +57570,7 @@
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1071" t="inlineStr">
@@ -57731,7 +57711,7 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>(53.88377843449647, 27.538088044516325)</t>
+          <t>(53.88672239302083, 27.554300168524918)</t>
         </is>
       </c>
       <c r="S1074" t="inlineStr">
@@ -57919,7 +57899,7 @@
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>(53.4607997453311, 27.20705551750072)</t>
+          <t>(53.87878912465345, 27.593529355667304)</t>
         </is>
       </c>
       <c r="S1078" t="inlineStr">
@@ -57966,7 +57946,7 @@
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>(54.3322659160714, 29.14890788746445)</t>
+          <t>(53.920074484987474, 27.58708392508324)</t>
         </is>
       </c>
       <c r="S1079" t="inlineStr">
@@ -58013,7 +57993,7 @@
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>(53.94798466380862, 27.61084961802718)</t>
+          <t>(53.948026210133634, 27.613505794455353)</t>
         </is>
       </c>
       <c r="S1080" t="inlineStr">
@@ -58060,7 +58040,7 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1081" t="inlineStr">
@@ -58107,12 +58087,12 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>(54.00964759923373, 28.242779899969545)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1082" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -58201,7 +58181,7 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1084" t="inlineStr">
@@ -58295,7 +58275,7 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1086" t="inlineStr">
@@ -58342,7 +58322,7 @@
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>(53.85749549094706, 27.67277397004106)</t>
+          <t>(53.859807231135115, 27.67397853342336)</t>
         </is>
       </c>
       <c r="S1087" t="inlineStr">
@@ -58389,7 +58369,7 @@
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1088" t="inlineStr">
@@ -58530,7 +58510,7 @@
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1091" t="inlineStr">
@@ -58577,7 +58557,7 @@
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>(54.31731928986269, 26.842505944813794)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1092" t="inlineStr">
@@ -58624,7 +58604,7 @@
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>(54.31731928986269, 26.842505944813794)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1093" t="inlineStr">
@@ -58671,7 +58651,7 @@
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>(54.31731928986269, 26.842505944813794)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1094" t="inlineStr">
@@ -58718,7 +58698,7 @@
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>(52.73673174909152, 27.451245299999893)</t>
+          <t>(53.852910083113514, 27.47166467339995)</t>
         </is>
       </c>
       <c r="S1095" t="inlineStr">
@@ -58765,7 +58745,7 @@
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1096" t="inlineStr">
@@ -58859,7 +58839,7 @@
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>(53.40585770721034, 26.988953309701667)</t>
+          <t>(53.87031945492551, 27.60280324519214)</t>
         </is>
       </c>
       <c r="S1098" t="inlineStr">
@@ -59235,7 +59215,7 @@
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>(53.862367063532076, 27.460788052090177)</t>
+          <t>(53.86236829988636, 27.459917381355936)</t>
         </is>
       </c>
       <c r="S1106" t="inlineStr">
@@ -59329,7 +59309,7 @@
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>(53.40895547577586, 26.992743090034086)</t>
+          <t>(53.87495738823634, 27.597938079366656)</t>
         </is>
       </c>
       <c r="S1108" t="inlineStr">
@@ -59423,7 +59403,7 @@
       </c>
       <c r="R1110" t="inlineStr">
         <is>
-          <t>(54.21168149925211, 28.512395349988044)</t>
+          <t>(53.93714738655468, 27.603446247460155)</t>
         </is>
       </c>
       <c r="S1110" t="inlineStr">
@@ -59470,7 +59450,7 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>(53.91155617135809, 27.579446093332134)</t>
+          <t>(53.91116985183881, 27.579245334668432)</t>
         </is>
       </c>
       <c r="S1111" t="inlineStr">
@@ -59705,7 +59685,7 @@
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1116" t="inlineStr">
@@ -59752,7 +59732,7 @@
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>(54.08915412969409, 28.34987537380517)</t>
+          <t>(53.85983281132595, 27.495352841602017)</t>
         </is>
       </c>
       <c r="S1117" t="inlineStr">
@@ -59893,7 +59873,7 @@
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>(54.31282320782153, 26.883381513923634)</t>
+          <t>(53.92252961692601, 27.564252607434298)</t>
         </is>
       </c>
       <c r="S1120" t="inlineStr">
@@ -59940,7 +59920,7 @@
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1121" t="inlineStr">
@@ -60128,7 +60108,7 @@
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1125" t="inlineStr">
@@ -60222,7 +60202,7 @@
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>(54.226911597889845, 28.49418193231928)</t>
+          <t>(53.89362584022411, 27.528699555384648)</t>
         </is>
       </c>
       <c r="S1127" t="inlineStr">
@@ -60269,7 +60249,7 @@
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1128" t="inlineStr">
@@ -60316,7 +60296,7 @@
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>(54.31343911411846, 26.88308168369962)</t>
+          <t>(53.918883998485, 27.57600505231966)</t>
         </is>
       </c>
       <c r="S1129" t="inlineStr">
@@ -60363,7 +60343,7 @@
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>(54.314312249567344, 26.883380755025645)</t>
+          <t>(53.91629165663606, 27.57952415879998)</t>
         </is>
       </c>
       <c r="S1130" t="inlineStr">
@@ -60410,7 +60390,7 @@
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>(53.899306842663314, 27.436647461731518)</t>
+          <t>(53.90518835728158, 27.431973783652094)</t>
         </is>
       </c>
       <c r="S1131" t="inlineStr">
@@ -60504,7 +60484,7 @@
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>(53.84429130295927, 27.533024233912865)</t>
+          <t>(53.84455179924194, 27.53128800000242)</t>
         </is>
       </c>
       <c r="S1133" t="inlineStr">
@@ -60551,7 +60531,7 @@
       </c>
       <c r="R1134" t="inlineStr">
         <is>
-          <t>(54.31118288968179, 29.1396558252219)</t>
+          <t>(53.87679270146727, 27.53525479753076)</t>
         </is>
       </c>
       <c r="S1134" t="inlineStr">
@@ -60598,7 +60578,7 @@
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>(54.61503684812353, 25.961493643021964)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1135" t="inlineStr">
@@ -60645,7 +60625,7 @@
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1136" t="inlineStr">
@@ -60786,7 +60766,7 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>(54.312257278448804, 26.88264715037148)</t>
+          <t>(53.920752287178594, 27.56887846791095)</t>
         </is>
       </c>
       <c r="S1139" t="inlineStr">
@@ -60833,7 +60813,7 @@
       </c>
       <c r="R1140" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1140" t="inlineStr">
@@ -60927,7 +60907,7 @@
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>(54.34817091582421, 29.271128703223432)</t>
+          <t>(53.90773210918643, 27.493946431158687)</t>
         </is>
       </c>
       <c r="S1142" t="inlineStr">
@@ -60974,7 +60954,7 @@
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>(54.31217644605799, 29.140262519439112)</t>
+          <t>(53.8801981293329, 27.53650168096221)</t>
         </is>
       </c>
       <c r="S1143" t="inlineStr">
@@ -61021,7 +61001,7 @@
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>(54.31731928986269, 26.842505944813794)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1144" t="inlineStr">
@@ -61068,7 +61048,7 @@
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>(53.94568864414451, 27.69254410061697)</t>
+          <t>(53.94453983020388, 27.688798190173294)</t>
         </is>
       </c>
       <c r="S1145" t="inlineStr">
@@ -61115,7 +61095,7 @@
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1146" t="inlineStr">
@@ -61209,7 +61189,7 @@
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>(53.86501114571879, 27.668634081703345)</t>
+          <t>(53.86471644269708, 27.66818721004799)</t>
         </is>
       </c>
       <c r="S1148" t="inlineStr">
@@ -61256,7 +61236,7 @@
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>(53.461264047642324, 27.222308935145456)</t>
+          <t>(53.87384509331299, 27.59828947391912)</t>
         </is>
       </c>
       <c r="S1149" t="inlineStr">
@@ -61303,7 +61283,7 @@
       </c>
       <c r="R1150" t="inlineStr">
         <is>
-          <t>(53.927286734909416, 27.588067129773407)</t>
+          <t>(53.92777606400047, 27.586599490218585)</t>
         </is>
       </c>
       <c r="S1150" t="inlineStr">
@@ -61350,7 +61330,7 @@
       </c>
       <c r="R1151" t="inlineStr">
         <is>
-          <t>(54.216621769036486, 28.515008663078223)</t>
+          <t>(53.92464275599643, 27.593631057143263)</t>
         </is>
       </c>
       <c r="S1151" t="inlineStr">
@@ -61444,7 +61424,7 @@
       </c>
       <c r="R1153" t="inlineStr">
         <is>
-          <t>(54.32729584926976, 26.83463200000056)</t>
+          <t>(53.88293032866114, 27.440603598149803)</t>
         </is>
       </c>
       <c r="S1153" t="inlineStr">
@@ -61491,7 +61471,7 @@
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>(54.103276684669346, 28.350380213056425)</t>
+          <t>(53.88671217200778, 27.53905023121778)</t>
         </is>
       </c>
       <c r="S1154" t="inlineStr">
@@ -61538,7 +61518,7 @@
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>(54.31855504944785, 29.135576550000906)</t>
+          <t>(53.892762219913024, 27.551480352126525)</t>
         </is>
       </c>
       <c r="S1155" t="inlineStr">
@@ -61632,7 +61612,7 @@
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1157" t="inlineStr">
@@ -61726,7 +61706,7 @@
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>(52.78796044617498, 27.552336660915305)</t>
+          <t>(53.90961425404386, 27.578991713977874)</t>
         </is>
       </c>
       <c r="S1159" t="inlineStr">
@@ -61773,7 +61753,7 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>(53.87119890128668, 27.68519708106477)</t>
+          <t>(53.871075448355676, 27.68450104490636)</t>
         </is>
       </c>
       <c r="S1160" t="inlineStr">
@@ -61820,7 +61800,7 @@
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1161" t="inlineStr">
@@ -61867,7 +61847,7 @@
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>(53.40644214914916, 26.989586000001417)</t>
+          <t>(53.869673896677426, 27.601504631318374)</t>
         </is>
       </c>
       <c r="S1162" t="inlineStr">
@@ -61914,7 +61894,7 @@
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>(53.8264969032208, 28.995611625498057)</t>
+          <t>(53.85556454612426, 27.562238727453682)</t>
         </is>
       </c>
       <c r="S1163" t="inlineStr">
@@ -62008,7 +61988,7 @@
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>(52.7881439637592, 27.716696780611244)</t>
+          <t>(53.911226559309846, 27.57736414982503)</t>
         </is>
       </c>
       <c r="S1165" t="inlineStr">
@@ -62196,7 +62176,7 @@
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>(54.32051492294169, 29.13394163476995)</t>
+          <t>(53.892584144623385, 27.552373890741965)</t>
         </is>
       </c>
       <c r="S1169" t="inlineStr">
@@ -62243,7 +62223,7 @@
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>(53.89069361804673, 27.55501415002037)</t>
+          <t>(53.89043075237321, 27.555993473322214)</t>
         </is>
       </c>
       <c r="S1170" t="inlineStr">
@@ -62384,7 +62364,7 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1173" t="inlineStr">
@@ -62478,7 +62458,7 @@
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>(53.85413019717261, 27.605713289600455)</t>
+          <t>(53.8535289591258, 27.60621449572814)</t>
         </is>
       </c>
       <c r="S1175" t="inlineStr">
@@ -62530,12 +62510,12 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>(54.51462029932578, 28.950441549997254)</t>
+          <t>(53.89629061738234, 27.553598085968517)</t>
         </is>
       </c>
       <c r="S1176" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -62577,7 +62557,7 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>(53.88958291578667, 27.559327406884094)</t>
+          <t>(53.89327471091667, 27.54326928198721)</t>
         </is>
       </c>
       <c r="S1177" t="inlineStr">
@@ -62906,7 +62886,7 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1184" t="inlineStr">
@@ -63047,7 +63027,7 @@
       </c>
       <c r="R1187" t="inlineStr">
         <is>
-          <t>(53.03669727465708, 28.264581657870213)</t>
+          <t>(53.89642436776382, 27.552339772698094)</t>
         </is>
       </c>
       <c r="S1187" t="inlineStr">
@@ -63094,7 +63074,7 @@
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>(53.99948404921144, 27.324633599996112)</t>
+          <t>(53.86586052249221, 27.568813463136966)</t>
         </is>
       </c>
       <c r="S1188" t="inlineStr">
@@ -63235,7 +63215,7 @@
       </c>
       <c r="R1191" t="inlineStr">
         <is>
-          <t>(54.346866780442845, 29.27612152523788)</t>
+          <t>(53.90419448871983, 27.49710645428238)</t>
         </is>
       </c>
       <c r="S1191" t="inlineStr">
@@ -63282,7 +63262,7 @@
       </c>
       <c r="R1192" t="inlineStr">
         <is>
-          <t>(54.214899699276515, 28.51689289998901)</t>
+          <t>(53.922956999586354, 27.503506500247248)</t>
         </is>
       </c>
       <c r="S1192" t="inlineStr">
@@ -63376,7 +63356,7 @@
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>(54.324742457149476, 26.850003688482484)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1194" t="inlineStr">
@@ -63423,7 +63403,7 @@
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>(54.62738269530315, 27.60961016098391)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1195" t="inlineStr">
@@ -63470,7 +63450,7 @@
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>(54.48082344048867, 26.891837614497494)</t>
+          <t>(53.81457211737807, 27.57598297940464)</t>
         </is>
       </c>
       <c r="S1196" t="inlineStr">
@@ -63636,7 +63616,7 @@
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>(55.574735249642835, 30.42700009999796)</t>
+          <t>(51.861694849168394, 26.758784650003555)</t>
         </is>
       </c>
       <c r="S1199" t="inlineStr">
@@ -63750,7 +63730,7 @@
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>(54.4220020777757, 27.833762491909905)</t>
+          <t>(54.42443062349028, 27.83333350640747)</t>
         </is>
       </c>
       <c r="S1201" t="inlineStr">
@@ -63911,7 +63891,7 @@
       </c>
       <c r="R1204" t="inlineStr">
         <is>
-          <t>(53.94406718015188, 27.77565823646336)</t>
+          <t>(53.912665116414885, 27.748222906359103)</t>
         </is>
       </c>
       <c r="S1204" t="inlineStr">
@@ -63958,7 +63938,7 @@
       </c>
       <c r="R1205" t="inlineStr">
         <is>
-          <t>(53.73931517954298, 27.5043937861416)</t>
+          <t>(53.73965777358889, 27.522349911979564)</t>
         </is>
       </c>
       <c r="S1205" t="inlineStr">
@@ -64010,7 +63990,7 @@
       </c>
       <c r="R1206" t="inlineStr">
         <is>
-          <t>(55.574735249642835, 30.42700009999796)</t>
+          <t>(51.861694849168394, 26.758784650003555)</t>
         </is>
       </c>
       <c r="S1206" t="inlineStr">
@@ -64352,12 +64332,12 @@
       </c>
       <c r="R1212" t="inlineStr">
         <is>
-          <t>(53.803598749160784, 27.287032100004705)</t>
+          <t>(53.68741868747188, 27.1562305237688)</t>
         </is>
       </c>
       <c r="S1212" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -64669,12 +64649,12 @@
       </c>
       <c r="R1218" t="inlineStr">
         <is>
-          <t>(52.2713407692284, 23.76835483649342)</t>
+          <t>(52.40288650549376, 23.820758217690596)</t>
         </is>
       </c>
       <c r="S1218" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -64783,7 +64763,7 @@
       </c>
       <c r="R1220" t="inlineStr">
         <is>
-          <t>(52.3891750500468, 23.829882566240336)</t>
+          <t>(52.40453147306507, 23.848215239768756)</t>
         </is>
       </c>
       <c r="S1220" t="inlineStr">
@@ -64840,7 +64820,7 @@
       </c>
       <c r="R1221" t="inlineStr">
         <is>
-          <t>(52.390505797243335, 23.824050587416274)</t>
+          <t>(52.39544804919627, 23.8250353999875)</t>
         </is>
       </c>
       <c r="S1221" t="inlineStr">
@@ -64959,7 +64939,7 @@
       </c>
       <c r="R1223" t="inlineStr">
         <is>
-          <t>(51.78693005992597, 24.065134951889725)</t>
+          <t>(51.786398676073226, 24.066251855057757)</t>
         </is>
       </c>
       <c r="S1223" t="inlineStr">
@@ -65415,7 +65395,7 @@
       </c>
       <c r="R1231" t="inlineStr">
         <is>
-          <t>(51.78237467399786, 30.263383441973236)</t>
+          <t>(51.7823399741148, 30.262359655661523)</t>
         </is>
       </c>
       <c r="S1231" t="inlineStr">
@@ -65472,7 +65452,7 @@
       </c>
       <c r="R1232" t="inlineStr">
         <is>
-          <t>(52.72950147781623, 29.483855786269356)</t>
+          <t>(52.64398298672205, 29.731670359538604)</t>
         </is>
       </c>
       <c r="S1232" t="inlineStr">
@@ -65529,7 +65509,7 @@
       </c>
       <c r="R1233" t="inlineStr">
         <is>
-          <t>(52.590954299131646, 29.627408949998646)</t>
+          <t>(52.624543784780094, 29.74673198689713)</t>
         </is>
       </c>
       <c r="S1233" t="inlineStr">
@@ -65586,7 +65566,7 @@
       </c>
       <c r="R1234" t="inlineStr">
         <is>
-          <t>(52.569592215773135, 30.08640980274179)</t>
+          <t>(52.93164779910227, 30.01772295000666)</t>
         </is>
       </c>
       <c r="S1234" t="inlineStr">
@@ -65698,16 +65678,6 @@
           <t xml:space="preserve">9 а </t>
         </is>
       </c>
-      <c r="R1236" t="inlineStr">
-        <is>
-          <t>(52.716227949313115, 30.5677107500053)</t>
-        </is>
-      </c>
-      <c r="S1236" t="inlineStr">
-        <is>
-          <t>(True)</t>
-        </is>
-      </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
@@ -65814,7 +65784,7 @@
       </c>
       <c r="R1238" t="inlineStr">
         <is>
-          <t>(51.98423199945233, 29.15622315004707)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1238" t="inlineStr">
@@ -65928,7 +65898,7 @@
       </c>
       <c r="R1240" t="inlineStr">
         <is>
-          <t>(51.98423199945233, 29.15622315004707)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1240" t="inlineStr">
@@ -65985,7 +65955,7 @@
       </c>
       <c r="R1241" t="inlineStr">
         <is>
-          <t>(52.05821769936423, 29.242943699904487)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1241" t="inlineStr">
@@ -66042,7 +66012,7 @@
       </c>
       <c r="R1242" t="inlineStr">
         <is>
-          <t>(53.096868553338005, 30.00569235480874)</t>
+          <t>(53.07116132258012, 29.987415013878955)</t>
         </is>
       </c>
       <c r="S1242" t="inlineStr">
@@ -66099,7 +66069,7 @@
       </c>
       <c r="R1243" t="inlineStr">
         <is>
-          <t>(53.096868553338005, 30.00569235480874)</t>
+          <t>(53.07116132258012, 29.987415013878955)</t>
         </is>
       </c>
       <c r="S1243" t="inlineStr">
@@ -66151,7 +66121,7 @@
       </c>
       <c r="R1244" t="inlineStr">
         <is>
-          <t>(53.078259297854665, 30.197558431222216)</t>
+          <t>(53.08279024870273, 30.199539382877347)</t>
         </is>
       </c>
       <c r="S1244" t="inlineStr">
@@ -66208,12 +66178,12 @@
       </c>
       <c r="R1245" t="inlineStr">
         <is>
-          <t>(53.04844452477852, 30.219354637153657)</t>
+          <t>(53.07116132258012, 29.987415013878955)</t>
         </is>
       </c>
       <c r="S1245" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -66265,7 +66235,7 @@
       </c>
       <c r="R1246" t="inlineStr">
         <is>
-          <t>(51.924568023217134, 29.25853034232797)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1246" t="inlineStr">
@@ -66379,7 +66349,7 @@
       </c>
       <c r="R1248" t="inlineStr">
         <is>
-          <t>(53.21011456278739, 30.615378355432867)</t>
+          <t>(53.069917879159256, 30.050605497878795)</t>
         </is>
       </c>
       <c r="S1248" t="inlineStr">
@@ -66431,7 +66401,7 @@
       </c>
       <c r="R1249" t="inlineStr">
         <is>
-          <t>(53.65665716222818, 24.507108202041398)</t>
+          <t>(53.07116132258012, 29.987415013878955)</t>
         </is>
       </c>
       <c r="S1249" t="inlineStr">
@@ -66545,7 +66515,7 @@
       </c>
       <c r="R1251" t="inlineStr">
         <is>
-          <t>(51.82422942619589, 29.171821085174546)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1251" t="inlineStr">
@@ -66602,7 +66572,7 @@
       </c>
       <c r="R1252" t="inlineStr">
         <is>
-          <t>(52.804319668001526, 29.4183018255499)</t>
+          <t>(52.6382349462432, 29.737493720212772)</t>
         </is>
       </c>
       <c r="S1252" t="inlineStr">
@@ -66716,7 +66686,7 @@
       </c>
       <c r="R1254" t="inlineStr">
         <is>
-          <t>(52.12877179912556, 29.338422349997888)</t>
+          <t>(52.12858236522899, 29.33910528215298)</t>
         </is>
       </c>
       <c r="S1254" t="inlineStr">
@@ -66773,7 +66743,7 @@
       </c>
       <c r="R1255" t="inlineStr">
         <is>
-          <t>(51.82422942619589, 29.171821085174546)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1255" t="inlineStr">
@@ -66944,7 +66914,7 @@
       </c>
       <c r="R1258" t="inlineStr">
         <is>
-          <t>(55.16899289473621, 30.1624961068755)</t>
+          <t>(52.93164779910227, 30.01772295000666)</t>
         </is>
       </c>
       <c r="S1258" t="inlineStr">
@@ -67058,7 +67028,7 @@
       </c>
       <c r="R1260" t="inlineStr">
         <is>
-          <t>(51.82422942619589, 29.171821085174546)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1260" t="inlineStr">
@@ -67343,7 +67313,7 @@
       </c>
       <c r="R1265" t="inlineStr">
         <is>
-          <t>(51.82422942619589, 29.171821085174546)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1265" t="inlineStr">
@@ -67400,7 +67370,7 @@
       </c>
       <c r="R1266" t="inlineStr">
         <is>
-          <t>(51.924568023217134, 29.25853034232797)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1266" t="inlineStr">
@@ -67571,7 +67541,7 @@
       </c>
       <c r="R1269" t="inlineStr">
         <is>
-          <t>(52.67135779915652, 30.818132500047724)</t>
+          <t>(52.652508199248956, 28.88329335000237)</t>
         </is>
       </c>
       <c r="S1269" t="inlineStr">
@@ -67628,7 +67598,7 @@
       </c>
       <c r="R1270" t="inlineStr">
         <is>
-          <t>(51.924568023217134, 29.25853034232797)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1270" t="inlineStr">
@@ -67799,7 +67769,7 @@
       </c>
       <c r="R1273" t="inlineStr">
         <is>
-          <t>(51.924568023217134, 29.25853034232797)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1273" t="inlineStr">
@@ -67856,7 +67826,7 @@
       </c>
       <c r="R1274" t="inlineStr">
         <is>
-          <t>(52.05821769936423, 29.242943699904487)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1274" t="inlineStr">
@@ -67913,7 +67883,7 @@
       </c>
       <c r="R1275" t="inlineStr">
         <is>
-          <t>(51.99009043135778, 29.21505323415142)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1275" t="inlineStr">
@@ -68027,7 +67997,7 @@
       </c>
       <c r="R1277" t="inlineStr">
         <is>
-          <t>(53.138952416007584, 30.790352184170768)</t>
+          <t>(53.13602359515398, 30.791603118473788)</t>
         </is>
       </c>
       <c r="S1277" t="inlineStr">
@@ -68079,7 +68049,7 @@
       </c>
       <c r="R1278" t="inlineStr">
         <is>
-          <t>(52.348610399109695, 31.509428650010033)</t>
+          <t>(52.42893704915196, 31.007644100001652)</t>
         </is>
       </c>
       <c r="S1278" t="inlineStr">
@@ -68193,7 +68163,7 @@
       </c>
       <c r="R1280" t="inlineStr">
         <is>
-          <t>(51.98423199945233, 29.15622315004707)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1280" t="inlineStr">
@@ -68250,7 +68220,7 @@
       </c>
       <c r="R1281" t="inlineStr">
         <is>
-          <t>(52.12437047431136, 29.333998520642645)</t>
+          <t>(52.133494646396315, 29.341747618370313)</t>
         </is>
       </c>
       <c r="S1281" t="inlineStr">
@@ -68307,7 +68277,7 @@
       </c>
       <c r="R1282" t="inlineStr">
         <is>
-          <t>(52.13838559918579, 29.316614400000617)</t>
+          <t>(52.1377005523871, 29.31354744236532)</t>
         </is>
       </c>
       <c r="S1282" t="inlineStr">
@@ -68421,7 +68391,7 @@
       </c>
       <c r="R1284" t="inlineStr">
         <is>
-          <t>(52.64996564178803, 29.656800668653144)</t>
+          <t>(52.61764714519931, 29.784684040603448)</t>
         </is>
       </c>
       <c r="S1284" t="inlineStr">
@@ -68478,7 +68448,7 @@
       </c>
       <c r="R1285" t="inlineStr">
         <is>
-          <t>(52.12437047431136, 29.333998520642645)</t>
+          <t>(52.133494646396315, 29.341747618370313)</t>
         </is>
       </c>
       <c r="S1285" t="inlineStr">
@@ -68535,7 +68505,7 @@
       </c>
       <c r="R1286" t="inlineStr">
         <is>
-          <t>(52.130429183866106, 29.33179179896787)</t>
+          <t>(52.132166087089765, 29.329814202633003)</t>
         </is>
       </c>
       <c r="S1286" t="inlineStr">
@@ -68592,7 +68562,7 @@
       </c>
       <c r="R1287" t="inlineStr">
         <is>
-          <t>(51.99009043135778, 29.21505323415142)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1287" t="inlineStr">
@@ -68706,7 +68676,7 @@
       </c>
       <c r="R1289" t="inlineStr">
         <is>
-          <t>(52.12437047431136, 29.333998520642645)</t>
+          <t>(52.133494646396315, 29.341747618370313)</t>
         </is>
       </c>
       <c r="S1289" t="inlineStr">
@@ -68820,7 +68790,7 @@
       </c>
       <c r="R1291" t="inlineStr">
         <is>
-          <t>(52.85932330372234, 30.00913754894322)</t>
+          <t>(52.88255492802582, 30.007839374093166)</t>
         </is>
       </c>
       <c r="S1291" t="inlineStr">
@@ -68991,7 +68961,7 @@
       </c>
       <c r="R1294" t="inlineStr">
         <is>
-          <t>(51.9362138158848, 30.80024581594924)</t>
+          <t>(51.936466474664584, 30.80094096335396)</t>
         </is>
       </c>
       <c r="S1294" t="inlineStr">
@@ -69048,7 +69018,7 @@
       </c>
       <c r="R1295" t="inlineStr">
         <is>
-          <t>(51.82422942619589, 29.171821085174546)</t>
+          <t>(52.026162373332646, 29.30237268794742)</t>
         </is>
       </c>
       <c r="S1295" t="inlineStr">
@@ -69105,7 +69075,7 @@
       </c>
       <c r="R1296" t="inlineStr">
         <is>
-          <t>(52.98163801260682, 30.154035742095193)</t>
+          <t>(52.895039667828506, 30.02078939645796)</t>
         </is>
       </c>
       <c r="S1296" t="inlineStr">
